--- a/not augmented data/estimator sensor bias.xlsx
+++ b/not augmented data/estimator sensor bias.xlsx
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G31" sqref="A2:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,4796 +436,4106 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>3168000</v>
-      </c>
-      <c r="B2" s="3">
-        <v>-9.688067000000001E-7</v>
-      </c>
-      <c r="C2" s="3">
-        <v>-5.7370809999999996E-7</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-4.9475387999999998E-5</v>
+        <v>33168000</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-1.3838594E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-5.7257030000000004E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4.8399606000000002E-4</v>
       </c>
       <c r="E2" s="2">
-        <v>1.1216019E-4</v>
-      </c>
-      <c r="F2" s="3">
-        <v>-4.4624620000000001E-5</v>
+        <v>2.2825766000000001E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.9784379999999999E-3</v>
       </c>
       <c r="G2" s="2">
-        <v>-2.3898579999999999E-3</v>
+        <v>-9.6193219999999996E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>4160000</v>
-      </c>
-      <c r="B3" s="3">
-        <v>-5.0800924999999998E-5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-9.9188949999999998E-5</v>
+        <v>34160000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-1.3974466000000001E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-5.7033272000000003E-3</v>
       </c>
       <c r="D3" s="2">
-        <v>-4.0768089999999998E-4</v>
+        <v>4.5040215000000003E-4</v>
       </c>
       <c r="E3" s="2">
-        <v>4.0281589999999999E-3</v>
+        <v>2.3614313000000001E-2</v>
       </c>
       <c r="F3" s="2">
-        <v>-1.8199454E-3</v>
+        <v>4.5554562999999999E-3</v>
       </c>
       <c r="G3" s="2">
-        <v>-1.433592E-2</v>
+        <v>-9.5160949999999994E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>5160000</v>
+        <v>35160000</v>
       </c>
       <c r="B4" s="2">
-        <v>-3.5456244999999999E-4</v>
+        <v>-1.3392803000000001E-3</v>
       </c>
       <c r="C4" s="2">
-        <v>-9.7881050000000005E-4</v>
+        <v>-5.7350980000000001E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>-1.2175052999999999E-3</v>
+        <v>8.1923325000000003E-4</v>
       </c>
       <c r="E4" s="2">
-        <v>2.4150154E-2</v>
+        <v>2.3600379000000001E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>-8.0182580000000003E-3</v>
+        <v>5.9421756000000003E-3</v>
       </c>
       <c r="G4" s="2">
-        <v>-3.2777590000000002E-2</v>
+        <v>-9.4735734000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>6160000</v>
+        <v>36160000</v>
       </c>
       <c r="B5" s="2">
-        <v>-5.0309905999999999E-4</v>
+        <v>-1.2849986000000001E-3</v>
       </c>
       <c r="C5" s="2">
-        <v>-2.1893224000000002E-3</v>
+        <v>-5.7652346000000004E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>-1.8414448000000001E-3</v>
+        <v>1.1500340999999999E-3</v>
       </c>
       <c r="E5" s="2">
-        <v>3.2801392999999998E-2</v>
+        <v>1.0699317E-2</v>
       </c>
       <c r="F5" s="2">
-        <v>-9.2116769999999997E-3</v>
+        <v>2.0989437E-2</v>
       </c>
       <c r="G5" s="2">
-        <v>-5.6122560000000002E-2</v>
+        <v>-9.2855510000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>7160000</v>
+        <v>37160000</v>
       </c>
       <c r="B6" s="2">
-        <v>-7.970373E-4</v>
+        <v>-1.2972268999999999E-3</v>
       </c>
       <c r="C6" s="2">
-        <v>-4.0062717000000003E-3</v>
+        <v>-5.7480902999999996E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>-1.8649921E-3</v>
+        <v>1.1582497999999999E-3</v>
       </c>
       <c r="E6" s="2">
-        <v>3.6932949999999999E-2</v>
+        <v>-2.8147717999999999E-2</v>
       </c>
       <c r="F6" s="2">
-        <v>-9.5045519999999994E-3</v>
+        <v>1.9897267E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>-7.6178209999999996E-2</v>
+        <v>-8.7845419999999994E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>8160000</v>
+        <v>38160000</v>
       </c>
       <c r="B7" s="2">
-        <v>-1.000604E-3</v>
+        <v>-1.3367146999999999E-3</v>
       </c>
       <c r="C7" s="2">
-        <v>-4.932372E-3</v>
+        <v>-5.7343235000000001E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>-1.1213637E-3</v>
+        <v>1.2175001000000001E-3</v>
       </c>
       <c r="E7" s="2">
-        <v>3.4961424999999997E-2</v>
+        <v>-7.3074449999999999E-2</v>
       </c>
       <c r="F7" s="2">
-        <v>-8.3316310000000008E-3</v>
+        <v>1.1288191E-2</v>
       </c>
       <c r="G7" s="2">
-        <v>-9.5305130000000002E-2</v>
+        <v>-7.976126E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>9160000</v>
+        <v>39160000</v>
       </c>
       <c r="B8" s="2">
-        <v>-1.1218488E-3</v>
+        <v>-1.360661E-3</v>
       </c>
       <c r="C8" s="2">
-        <v>-5.2114533999999997E-3</v>
+        <v>-5.7309377E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>-3.8818849999999998E-4</v>
+        <v>1.2548373000000001E-3</v>
       </c>
       <c r="E8" s="2">
-        <v>3.2487189999999999E-2</v>
+        <v>-0.10897464</v>
       </c>
       <c r="F8" s="2">
-        <v>-6.761675E-3</v>
+        <v>8.3275209999999992E-3</v>
       </c>
       <c r="G8" s="2">
-        <v>-0.10862099</v>
+        <v>-7.0820419999999995E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>10160000</v>
+        <v>40160000</v>
       </c>
       <c r="B9" s="2">
-        <v>-1.1683147E-3</v>
+        <v>-1.3761285000000001E-3</v>
       </c>
       <c r="C9" s="2">
-        <v>-5.4066773E-3</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-1.8202334E-6</v>
+        <v>-5.7323836E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.2726745000000001E-3</v>
       </c>
       <c r="E9" s="2">
-        <v>2.9144736000000001E-2</v>
+        <v>-0.13617752</v>
       </c>
       <c r="F9" s="2">
-        <v>-5.7107746000000003E-3</v>
+        <v>6.7784489999999998E-3</v>
       </c>
       <c r="G9" s="2">
-        <v>-0.11874617</v>
+        <v>-6.1154424999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>11160000</v>
+        <v>41160000</v>
       </c>
       <c r="B10" s="2">
-        <v>-1.1757221E-3</v>
+        <v>-1.3918976E-3</v>
       </c>
       <c r="C10" s="2">
-        <v>-5.6087626E-3</v>
+        <v>-5.7386219999999996E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>2.8022224000000002E-4</v>
+        <v>1.3032073999999999E-3</v>
       </c>
       <c r="E10" s="2">
-        <v>2.3834659000000001E-2</v>
+        <v>-0.14993661999999999</v>
       </c>
       <c r="F10" s="2">
-        <v>-5.2613253000000004E-3</v>
+        <v>4.1484343999999996E-3</v>
       </c>
       <c r="G10" s="2">
-        <v>-0.12562055999999999</v>
+        <v>-5.2747525000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>12160000</v>
+        <v>42160000</v>
       </c>
       <c r="B11" s="2">
-        <v>-1.1827980999999999E-3</v>
+        <v>-1.3997479999999999E-3</v>
       </c>
       <c r="C11" s="2">
-        <v>-5.7470710000000003E-3</v>
+        <v>-5.7512834000000004E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>6.5939483000000004E-4</v>
+        <v>1.3200442999999999E-3</v>
       </c>
       <c r="E11" s="2">
-        <v>1.9348062999999999E-2</v>
+        <v>-0.15613268</v>
       </c>
       <c r="F11" s="2">
-        <v>-4.8983810000000003E-3</v>
+        <v>3.2474560000000001E-3</v>
       </c>
       <c r="G11" s="2">
-        <v>-0.12712532000000001</v>
+        <v>-4.5637835000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>13159999</v>
+        <v>43160000</v>
       </c>
       <c r="B12" s="2">
-        <v>-1.2421354E-3</v>
+        <v>-1.3976796E-3</v>
       </c>
       <c r="C12" s="2">
-        <v>-5.8221538000000003E-3</v>
+        <v>-5.7739452E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>9.1190349999999999E-4</v>
+        <v>1.3179473E-3</v>
       </c>
       <c r="E12" s="2">
-        <v>1.6633686000000002E-2</v>
+        <v>-0.15784195000000001</v>
       </c>
       <c r="F12" s="2">
-        <v>-2.366782E-3</v>
+        <v>4.0836153000000002E-3</v>
       </c>
       <c r="G12" s="2">
-        <v>-0.12830638999999999</v>
+        <v>-4.0945361999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>14160000</v>
+        <v>44160000</v>
       </c>
       <c r="B13" s="2">
-        <v>-1.2653760999999999E-3</v>
+        <v>-1.4005634E-3</v>
       </c>
       <c r="C13" s="2">
-        <v>-5.9143794000000001E-3</v>
+        <v>-5.7969329999999998E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>1.0751241E-3</v>
+        <v>1.3137734E-3</v>
       </c>
       <c r="E13" s="2">
-        <v>1.2625533E-2</v>
+        <v>-0.15825260999999999</v>
       </c>
       <c r="F13" s="2">
-        <v>-1.2106622E-3</v>
+        <v>4.9093147000000004E-3</v>
       </c>
       <c r="G13" s="2">
-        <v>-0.12871829000000001</v>
+        <v>-3.7485999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>15160000</v>
+        <v>45160000</v>
       </c>
       <c r="B14" s="2">
-        <v>-1.286319E-3</v>
+        <v>-1.4024873000000001E-3</v>
       </c>
       <c r="C14" s="2">
-        <v>-5.9510316000000001E-3</v>
+        <v>-5.8267830000000003E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>1.1979763E-3</v>
+        <v>1.2963668E-3</v>
       </c>
       <c r="E14" s="2">
-        <v>1.098229E-2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-6.0736044999999999E-5</v>
+        <v>-0.15834715999999999</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5.5025932000000001E-3</v>
       </c>
       <c r="G14" s="2">
-        <v>-0.12935458</v>
+        <v>-3.546328E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>16160000</v>
+        <v>46160000</v>
       </c>
       <c r="B15" s="2">
-        <v>-1.3105815000000001E-3</v>
+        <v>-1.3962747999999999E-3</v>
       </c>
       <c r="C15" s="2">
-        <v>-5.9785530000000002E-3</v>
+        <v>-5.8471225000000003E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>1.2900921000000001E-3</v>
+        <v>1.2899134000000001E-3</v>
       </c>
       <c r="E15" s="2">
-        <v>9.6568969999999994E-3</v>
+        <v>-0.15883437</v>
       </c>
       <c r="F15" s="2">
-        <v>1.3272983000000001E-3</v>
+        <v>4.9031405E-3</v>
       </c>
       <c r="G15" s="2">
-        <v>-0.12956923000000001</v>
+        <v>-3.3844012999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>17160000</v>
+        <v>47160000</v>
       </c>
       <c r="B16" s="2">
-        <v>-1.3441676E-3</v>
+        <v>-1.3890386E-3</v>
       </c>
       <c r="C16" s="2">
-        <v>-5.9927165999999997E-3</v>
+        <v>-5.8714869999999999E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>1.3488142999999999E-3</v>
+        <v>1.2759360000000001E-3</v>
       </c>
       <c r="E16" s="2">
-        <v>8.9425939999999999E-3</v>
+        <v>-0.15973891000000001</v>
       </c>
       <c r="F16" s="2">
-        <v>3.3132571E-3</v>
+        <v>3.9042763E-3</v>
       </c>
       <c r="G16" s="2">
-        <v>-0.12924153999999999</v>
+        <v>-3.2622989999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>18160000</v>
+        <v>48160000</v>
       </c>
       <c r="B17" s="2">
-        <v>-1.3553379E-3</v>
+        <v>-1.3792533000000001E-3</v>
       </c>
       <c r="C17" s="2">
-        <v>-5.9852539999999997E-3</v>
+        <v>-5.8780246999999997E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>1.47806E-3</v>
+        <v>1.273319E-3</v>
       </c>
       <c r="E17" s="2">
-        <v>9.5559900000000003E-3</v>
+        <v>-0.16034512000000001</v>
       </c>
       <c r="F17" s="2">
-        <v>4.1235070000000002E-3</v>
+        <v>2.8777616000000002E-3</v>
       </c>
       <c r="G17" s="2">
-        <v>-0.12869178000000001</v>
+        <v>-3.1430192000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>19160000</v>
+        <v>49160000</v>
       </c>
       <c r="B18" s="2">
-        <v>-1.3622337E-3</v>
+        <v>-1.3669973000000001E-3</v>
       </c>
       <c r="C18" s="2">
-        <v>-5.9676099999999999E-3</v>
+        <v>-5.8849419999999998E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>1.4692539000000001E-3</v>
+        <v>1.2632778E-3</v>
       </c>
       <c r="E18" s="2">
-        <v>1.0601708E-2</v>
+        <v>-0.16085303000000001</v>
       </c>
       <c r="F18" s="2">
-        <v>4.5444099999999996E-3</v>
+        <v>1.6813278999999999E-3</v>
       </c>
       <c r="G18" s="2">
-        <v>-0.12775216</v>
+        <v>-2.9719553999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>20160000</v>
+        <v>50160000</v>
       </c>
       <c r="B19" s="2">
-        <v>-1.3680698E-3</v>
+        <v>-1.3536177999999999E-3</v>
       </c>
       <c r="C19" s="2">
-        <v>-5.9439970000000003E-3</v>
+        <v>-5.8868419999999998E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>1.4224376999999999E-3</v>
+        <v>1.2548215000000001E-3</v>
       </c>
       <c r="E19" s="2">
-        <v>1.1934080999999999E-2</v>
+        <v>-0.16122843000000001</v>
       </c>
       <c r="F19" s="2">
-        <v>4.8754419999999998E-3</v>
+        <v>3.459642E-4</v>
       </c>
       <c r="G19" s="2">
-        <v>-0.12579947999999999</v>
+        <v>-2.8208170000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>21160000</v>
+        <v>51160000</v>
       </c>
       <c r="B20" s="2">
-        <v>-1.3722111E-3</v>
+        <v>-1.3479461000000001E-3</v>
       </c>
       <c r="C20" s="2">
-        <v>-5.9309452999999996E-3</v>
+        <v>-5.8833454E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>1.3445956000000001E-3</v>
+        <v>1.2404482E-3</v>
       </c>
       <c r="E20" s="2">
-        <v>1.2614943E-2</v>
+        <v>-0.16128981000000001</v>
       </c>
       <c r="F20" s="2">
-        <v>5.0562042999999996E-3</v>
+        <v>-6.8415239999999997E-4</v>
       </c>
       <c r="G20" s="2">
-        <v>-0.12458999</v>
+        <v>-2.4796437000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>22160000</v>
+        <v>52160000</v>
       </c>
       <c r="B21" s="2">
-        <v>-1.3806983E-3</v>
+        <v>-1.3394805000000001E-3</v>
       </c>
       <c r="C21" s="2">
-        <v>-5.9217109999999996E-3</v>
+        <v>-5.8798949999999996E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>1.2923267999999999E-3</v>
+        <v>1.2235047000000001E-3</v>
       </c>
       <c r="E21" s="2">
-        <v>1.3081002E-2</v>
+        <v>-0.16127818999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>5.5621317999999999E-3</v>
+        <v>-1.724632E-3</v>
       </c>
       <c r="G21" s="2">
-        <v>-0.123225205</v>
+        <v>-2.1935420000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>23160000</v>
+        <v>53160000</v>
       </c>
       <c r="B22" s="2">
-        <v>-1.3785091E-3</v>
+        <v>-1.3264023000000001E-3</v>
       </c>
       <c r="C22" s="2">
-        <v>-5.9000077000000003E-3</v>
+        <v>-5.8703213000000001E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>1.2313927E-3</v>
+        <v>1.1979779999999999E-3</v>
       </c>
       <c r="E22" s="2">
-        <v>1.4338388000000001E-2</v>
+        <v>-0.16100174</v>
       </c>
       <c r="F22" s="2">
-        <v>5.3553786000000003E-3</v>
+        <v>-2.8552410000000001E-3</v>
       </c>
       <c r="G22" s="2">
-        <v>-0.12170354</v>
+        <v>-1.8491844E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>24160000</v>
+        <v>54160000</v>
       </c>
       <c r="B23" s="2">
-        <v>-1.3707272E-3</v>
+        <v>-1.3180850000000001E-3</v>
       </c>
       <c r="C23" s="2">
-        <v>-5.877579E-3</v>
+        <v>-5.8689214999999998E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>1.179549E-3</v>
+        <v>1.1625132000000001E-3</v>
       </c>
       <c r="E23" s="2">
-        <v>1.5633571999999998E-2</v>
+        <v>-0.16099100999999999</v>
       </c>
       <c r="F23" s="2">
-        <v>4.8176349999999998E-3</v>
+        <v>-3.6494930000000002E-3</v>
       </c>
       <c r="G23" s="2">
-        <v>-0.11942708</v>
+        <v>-1.5053571E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>25160000</v>
+        <v>55160000</v>
       </c>
       <c r="B24" s="2">
-        <v>-1.3622936000000001E-3</v>
+        <v>-1.3096638E-3</v>
       </c>
       <c r="C24" s="2">
-        <v>-5.8617799999999996E-3</v>
+        <v>-5.8555070000000002E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>1.0620862999999999E-3</v>
+        <v>1.1358253999999999E-3</v>
       </c>
       <c r="E24" s="2">
-        <v>1.6428536000000001E-2</v>
+        <v>-0.16059223</v>
       </c>
       <c r="F24" s="2">
-        <v>4.1545135999999996E-3</v>
+        <v>-4.0648979999999999E-3</v>
       </c>
       <c r="G24" s="2">
-        <v>-0.1173551</v>
+        <v>-1.0678696999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>26160000</v>
+        <v>56160000</v>
       </c>
       <c r="B25" s="2">
-        <v>-1.3457324E-3</v>
+        <v>-1.2961869E-3</v>
       </c>
       <c r="C25" s="2">
-        <v>-5.84126E-3</v>
+        <v>-5.8444915E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>9.5296509999999999E-4</v>
+        <v>1.1018422999999999E-3</v>
       </c>
       <c r="E25" s="2">
-        <v>1.7510917000000001E-2</v>
+        <v>-0.16027844999999999</v>
       </c>
       <c r="F25" s="2">
-        <v>3.0465790000000002E-3</v>
+        <v>-4.6619084000000003E-3</v>
       </c>
       <c r="G25" s="2">
-        <v>-0.11445311499999999</v>
+        <v>-7.1005983999999998E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>27160000</v>
+        <v>57160000</v>
       </c>
       <c r="B26" s="2">
-        <v>-1.3326312E-3</v>
+        <v>-1.285572E-3</v>
       </c>
       <c r="C26" s="2">
-        <v>-5.8175329999999997E-3</v>
+        <v>-5.8318450000000004E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>8.5992450000000004E-4</v>
+        <v>1.0653972999999999E-3</v>
       </c>
       <c r="E26" s="2">
-        <v>1.8761133999999999E-2</v>
+        <v>-0.15985685999999999</v>
       </c>
       <c r="F26" s="2">
-        <v>2.195785E-3</v>
+        <v>-4.8523107999999997E-3</v>
       </c>
       <c r="G26" s="2">
-        <v>-0.111840725</v>
+        <v>-3.8161372999999999E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>28168000</v>
+        <v>58160000</v>
       </c>
       <c r="B27" s="2">
-        <v>-1.3285577E-3</v>
+        <v>-1.2556071E-3</v>
       </c>
       <c r="C27" s="2">
-        <v>-5.8054053000000001E-3</v>
+        <v>-5.8138254E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>7.9162435999999997E-4</v>
+        <v>1.0063736000000001E-3</v>
       </c>
       <c r="E27" s="2">
-        <v>1.9394399999999999E-2</v>
+        <v>-0.15910889</v>
       </c>
       <c r="F27" s="2">
-        <v>1.8708096E-3</v>
+        <v>-4.7282367E-3</v>
       </c>
       <c r="G27" s="2">
-        <v>-0.10907173000000001</v>
+        <v>-1.177169E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>29160000</v>
+        <v>59160000</v>
       </c>
       <c r="B28" s="2">
-        <v>-1.3272817000000001E-3</v>
+        <v>-1.2342410000000001E-3</v>
       </c>
       <c r="C28" s="2">
-        <v>-5.7935809999999999E-3</v>
+        <v>-5.7941629999999997E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>7.2029785999999998E-4</v>
+        <v>9.6700474000000001E-4</v>
       </c>
       <c r="E28" s="2">
-        <v>1.9994542000000001E-2</v>
+        <v>-0.15834772999999999</v>
       </c>
       <c r="F28" s="2">
-        <v>1.6992604000000001E-3</v>
+        <v>-4.2963997E-3</v>
       </c>
       <c r="G28" s="2">
-        <v>-0.106249996</v>
+        <v>4.5287915E-4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>30160000</v>
+        <v>60160000</v>
       </c>
       <c r="B29" s="2">
-        <v>-1.3348499E-3</v>
+        <v>-1.2282180000000001E-3</v>
       </c>
       <c r="C29" s="2">
-        <v>-5.7758319999999998E-3</v>
+        <v>-5.7836514999999996E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>6.4545990000000001E-4</v>
+        <v>9.4829910000000003E-4</v>
       </c>
       <c r="E29" s="2">
-        <v>2.0839442999999999E-2</v>
+        <v>-0.15800843000000001</v>
       </c>
       <c r="F29" s="2">
-        <v>1.9644694000000001E-3</v>
+        <v>-4.4993059999999998E-3</v>
       </c>
       <c r="G29" s="2">
-        <v>-0.10274407000000001</v>
+        <v>1.3054835E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>31160000</v>
+        <v>61160000</v>
       </c>
       <c r="B30" s="2">
-        <v>-1.3500862E-3</v>
+        <v>-1.2295635000000001E-3</v>
       </c>
       <c r="C30" s="2">
-        <v>-5.7594496999999996E-3</v>
+        <v>-5.7811844000000001E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>5.9455406000000004E-4</v>
+        <v>9.3338290000000005E-4</v>
       </c>
       <c r="E30" s="2">
-        <v>2.155485E-2</v>
+        <v>-0.15751190000000001</v>
       </c>
       <c r="F30" s="2">
-        <v>2.6061334999999998E-3</v>
+        <v>-5.0651680000000001E-3</v>
       </c>
       <c r="G30" s="2">
-        <v>-0.10008134</v>
+        <v>1.9247136E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>32160000</v>
+        <v>62160000</v>
       </c>
       <c r="B31" s="2">
-        <v>-1.3683968000000001E-3</v>
+        <v>-1.2438652000000001E-3</v>
       </c>
       <c r="C31" s="2">
-        <v>-5.7448865999999996E-3</v>
+        <v>-5.7808479999999999E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>5.2789690000000001E-4</v>
+        <v>9.041082E-4</v>
       </c>
       <c r="E31" s="2">
-        <v>2.2107115E-2</v>
+        <v>-0.1573167</v>
       </c>
       <c r="F31" s="2">
-        <v>3.3346748E-3</v>
+        <v>-4.6411891999999996E-3</v>
       </c>
       <c r="G31" s="2">
-        <v>-9.7900009999999996E-2</v>
+        <v>2.0992237000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>33168000</v>
+        <v>63168000</v>
       </c>
       <c r="B32" s="2">
-        <v>-1.3838594E-3</v>
+        <v>-1.2668486000000001E-3</v>
       </c>
       <c r="C32" s="2">
-        <v>-5.7257030000000004E-3</v>
+        <v>-5.7885143999999999E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>4.8399606000000002E-4</v>
+        <v>9.1779203000000005E-4</v>
       </c>
       <c r="E32" s="2">
-        <v>2.2825766000000001E-2</v>
+        <v>-0.15712883999999999</v>
       </c>
       <c r="F32" s="2">
-        <v>3.9784379999999999E-3</v>
+        <v>-8.3864230000000001E-4</v>
       </c>
       <c r="G32" s="2">
-        <v>-9.6193219999999996E-2</v>
+        <v>1.7993355E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>34160000</v>
+        <v>64160000</v>
       </c>
       <c r="B33" s="2">
-        <v>-1.3974466000000001E-3</v>
+        <v>-1.2720755000000001E-3</v>
       </c>
       <c r="C33" s="2">
-        <v>-5.7033272000000003E-3</v>
+        <v>-5.8089400000000003E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>4.5040215000000003E-4</v>
+        <v>9.7054813999999999E-4</v>
       </c>
       <c r="E33" s="2">
-        <v>2.3614313000000001E-2</v>
+        <v>-0.16085906</v>
       </c>
       <c r="F33" s="2">
-        <v>4.5554562999999999E-3</v>
+        <v>6.0578975999999998E-3</v>
       </c>
       <c r="G33" s="2">
-        <v>-9.5160949999999994E-2</v>
+        <v>1.4005248999999999E-4</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>35160000</v>
+        <v>65160000</v>
       </c>
       <c r="B34" s="2">
-        <v>-1.3392803000000001E-3</v>
+        <v>-1.2651086E-3</v>
       </c>
       <c r="C34" s="2">
-        <v>-5.7350980000000001E-3</v>
+        <v>-5.8503575000000002E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>8.1923325000000003E-4</v>
+        <v>1.0198066E-3</v>
       </c>
       <c r="E34" s="2">
-        <v>2.3600379000000001E-2</v>
+        <v>-0.17099275999999999</v>
       </c>
       <c r="F34" s="2">
-        <v>5.9421756000000003E-3</v>
+        <v>2.1596877E-2</v>
       </c>
       <c r="G34" s="2">
-        <v>-9.4735734000000002E-2</v>
+        <v>-1.6787654E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>36160000</v>
+        <v>66160000</v>
       </c>
       <c r="B35" s="2">
-        <v>-1.2849986000000001E-3</v>
+        <v>-1.2597190000000001E-3</v>
       </c>
       <c r="C35" s="2">
-        <v>-5.7652346000000004E-3</v>
+        <v>-5.9037865E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>1.1500340999999999E-3</v>
+        <v>9.8616789999999991E-4</v>
       </c>
       <c r="E35" s="2">
-        <v>1.0699317E-2</v>
+        <v>-0.18338284999999999</v>
       </c>
       <c r="F35" s="2">
-        <v>2.0989437E-2</v>
+        <v>5.0827353999999998E-2</v>
       </c>
       <c r="G35" s="2">
-        <v>-9.2855510000000002E-2</v>
+        <v>-3.5464184000000001E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>37160000</v>
+        <v>67160000</v>
       </c>
       <c r="B36" s="2">
-        <v>-1.2972268999999999E-3</v>
+        <v>-1.2535726000000001E-3</v>
       </c>
       <c r="C36" s="2">
-        <v>-5.7480902999999996E-3</v>
+        <v>-5.9515903999999998E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>1.1582497999999999E-3</v>
+        <v>8.7713690000000002E-4</v>
       </c>
       <c r="E36" s="2">
-        <v>-2.8147717999999999E-2</v>
+        <v>-0.19217846</v>
       </c>
       <c r="F36" s="2">
-        <v>1.9897267E-2</v>
+        <v>8.2093159999999998E-2</v>
       </c>
       <c r="G36" s="2">
-        <v>-8.7845419999999994E-2</v>
+        <v>-5.1100800000000004E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>38160000</v>
+        <v>68160000</v>
       </c>
       <c r="B37" s="2">
-        <v>-1.3367146999999999E-3</v>
+        <v>-1.2385676000000001E-3</v>
       </c>
       <c r="C37" s="2">
-        <v>-5.7343235000000001E-3</v>
+        <v>-5.9793275000000002E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>1.2175001000000001E-3</v>
+        <v>7.8063377000000005E-4</v>
       </c>
       <c r="E37" s="2">
-        <v>-7.3074449999999999E-2</v>
+        <v>-0.1971928</v>
       </c>
       <c r="F37" s="2">
-        <v>1.1288191E-2</v>
+        <v>0.10309697</v>
       </c>
       <c r="G37" s="2">
-        <v>-7.976126E-2</v>
+        <v>-6.4934874000000002E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>39160000</v>
+        <v>69160000</v>
       </c>
       <c r="B38" s="2">
-        <v>-1.360661E-3</v>
+        <v>-1.2177599E-3</v>
       </c>
       <c r="C38" s="2">
-        <v>-5.7309377E-3</v>
+        <v>-5.995106E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>1.2548373000000001E-3</v>
+        <v>7.1991700000000004E-4</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.10897464</v>
+        <v>-0.20028320999999999</v>
       </c>
       <c r="F38" s="2">
-        <v>8.3275209999999992E-3</v>
+        <v>0.11607459000000001</v>
       </c>
       <c r="G38" s="2">
-        <v>-7.0820419999999995E-2</v>
+        <v>-7.8937940000000009E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>40160000</v>
+        <v>70160000</v>
       </c>
       <c r="B39" s="2">
-        <v>-1.3761285000000001E-3</v>
+        <v>-1.1979105999999999E-3</v>
       </c>
       <c r="C39" s="2">
-        <v>-5.7323836E-3</v>
+        <v>-6.0017713999999996E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>1.2726745000000001E-3</v>
+        <v>6.9505203000000003E-4</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.13617752</v>
+        <v>-0.20204574</v>
       </c>
       <c r="F39" s="2">
-        <v>6.7784489999999998E-3</v>
+        <v>0.12220702999999999</v>
       </c>
       <c r="G39" s="2">
-        <v>-6.1154424999999998E-2</v>
+        <v>-9.0642850000000001E-3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>41160000</v>
+        <v>71160000</v>
       </c>
       <c r="B40" s="2">
-        <v>-1.3918976E-3</v>
+        <v>-1.1659076000000001E-3</v>
       </c>
       <c r="C40" s="2">
-        <v>-5.7386219999999996E-3</v>
+        <v>-6.0083224000000001E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>1.3032073999999999E-3</v>
+        <v>6.7659287000000005E-4</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.14993661999999999</v>
+        <v>-0.20323245000000001</v>
       </c>
       <c r="F40" s="2">
-        <v>4.1484343999999996E-3</v>
+        <v>0.12659941999999999</v>
       </c>
       <c r="G40" s="2">
-        <v>-5.2747525000000003E-2</v>
+        <v>-1.0517432E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>42160000</v>
+        <v>72160000</v>
       </c>
       <c r="B41" s="2">
-        <v>-1.3997479999999999E-3</v>
+        <v>-1.1434552000000001E-3</v>
       </c>
       <c r="C41" s="2">
-        <v>-5.7512834000000004E-3</v>
+        <v>-6.0156569999999998E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>1.3200442999999999E-3</v>
+        <v>6.7073800000000004E-4</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.15613268</v>
+        <v>-0.20377793999999999</v>
       </c>
       <c r="F41" s="2">
-        <v>3.2474560000000001E-3</v>
+        <v>0.12848208999999999</v>
       </c>
       <c r="G41" s="2">
-        <v>-4.5637835000000002E-2</v>
+        <v>-1.2588238E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>43160000</v>
+        <v>73160000</v>
       </c>
       <c r="B42" s="2">
-        <v>-1.3976796E-3</v>
+        <v>-1.1310134000000001E-3</v>
       </c>
       <c r="C42" s="2">
-        <v>-5.7739452E-3</v>
+        <v>-6.0200564999999999E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>1.3179473E-3</v>
+        <v>6.7374809999999998E-4</v>
       </c>
       <c r="E42" s="2">
-        <v>-0.15784195000000001</v>
+        <v>-0.20394158000000001</v>
       </c>
       <c r="F42" s="2">
-        <v>4.0836153000000002E-3</v>
+        <v>0.12943134000000001</v>
       </c>
       <c r="G42" s="2">
-        <v>-4.0945361999999999E-2</v>
+        <v>-1.3212946999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44160000</v>
+        <v>74160000</v>
       </c>
       <c r="B43" s="2">
-        <v>-1.4005634E-3</v>
+        <v>-1.122212E-3</v>
       </c>
       <c r="C43" s="2">
-        <v>-5.7969329999999998E-3</v>
+        <v>-6.0212677000000001E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>1.3137734E-3</v>
+        <v>6.7834130000000005E-4</v>
       </c>
       <c r="E43" s="2">
-        <v>-0.15825260999999999</v>
+        <v>-0.20422219</v>
       </c>
       <c r="F43" s="2">
-        <v>4.9093147000000004E-3</v>
+        <v>0.12957536</v>
       </c>
       <c r="G43" s="2">
-        <v>-3.7485999999999998E-2</v>
+        <v>-1.4129417E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45160000</v>
+        <v>75160000</v>
       </c>
       <c r="B44" s="2">
-        <v>-1.4024873000000001E-3</v>
+        <v>-1.112364E-3</v>
       </c>
       <c r="C44" s="2">
-        <v>-5.8267830000000003E-3</v>
+        <v>-6.0134050000000003E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>1.2963668E-3</v>
+        <v>6.7660335000000002E-4</v>
       </c>
       <c r="E44" s="2">
-        <v>-0.15834715999999999</v>
+        <v>-0.20447770000000001</v>
       </c>
       <c r="F44" s="2">
-        <v>5.5025932000000001E-3</v>
+        <v>0.12945266</v>
       </c>
       <c r="G44" s="2">
-        <v>-3.546328E-2</v>
+        <v>-1.4800386E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>46160000</v>
+        <v>76160000</v>
       </c>
       <c r="B45" s="2">
-        <v>-1.3962747999999999E-3</v>
+        <v>-1.0971309000000001E-3</v>
       </c>
       <c r="C45" s="2">
-        <v>-5.8471225000000003E-3</v>
+        <v>-5.9813517E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>1.2899134000000001E-3</v>
+        <v>6.5191529999999998E-4</v>
       </c>
       <c r="E45" s="2">
-        <v>-0.15883437</v>
+        <v>-0.20500039</v>
       </c>
       <c r="F45" s="2">
-        <v>4.9031405E-3</v>
+        <v>0.12961279000000001</v>
       </c>
       <c r="G45" s="2">
-        <v>-3.3844012999999999E-2</v>
+        <v>-1.4501248499999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>47160000</v>
+        <v>77160000</v>
       </c>
       <c r="B46" s="2">
-        <v>-1.3890386E-3</v>
+        <v>-1.0604612E-3</v>
       </c>
       <c r="C46" s="2">
-        <v>-5.8714869999999999E-3</v>
+        <v>-5.9638177000000004E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>1.2759360000000001E-3</v>
+        <v>5.9765583000000004E-4</v>
       </c>
       <c r="E46" s="2">
-        <v>-0.15973891000000001</v>
+        <v>-0.20592630000000001</v>
       </c>
       <c r="F46" s="2">
-        <v>3.9042763E-3</v>
+        <v>0.12960917</v>
       </c>
       <c r="G46" s="2">
-        <v>-3.2622989999999998E-2</v>
+        <v>-1.4255265E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>48160000</v>
+        <v>78160000</v>
       </c>
       <c r="B47" s="2">
-        <v>-1.3792533000000001E-3</v>
+        <v>-1.0355919999999999E-3</v>
       </c>
       <c r="C47" s="2">
-        <v>-5.8780246999999997E-3</v>
+        <v>-5.9662936000000003E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>1.273319E-3</v>
+        <v>5.4179236999999996E-4</v>
       </c>
       <c r="E47" s="2">
-        <v>-0.16034512000000001</v>
+        <v>-0.20777369000000001</v>
       </c>
       <c r="F47" s="2">
-        <v>2.8777616000000002E-3</v>
+        <v>0.12996167</v>
       </c>
       <c r="G47" s="2">
-        <v>-3.1430192000000003E-2</v>
+        <v>-1.4215243000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>49160000</v>
+        <v>79160000</v>
       </c>
       <c r="B48" s="2">
-        <v>-1.3669973000000001E-3</v>
+        <v>-1.0205501000000001E-3</v>
       </c>
       <c r="C48" s="2">
-        <v>-5.8849419999999998E-3</v>
+        <v>-5.9794085E-3</v>
       </c>
       <c r="D48" s="2">
-        <v>1.2632778E-3</v>
+        <v>5.0216759999999997E-4</v>
       </c>
       <c r="E48" s="2">
-        <v>-0.16085303000000001</v>
+        <v>-0.21074723000000001</v>
       </c>
       <c r="F48" s="2">
-        <v>1.6813278999999999E-3</v>
+        <v>0.13091237999999999</v>
       </c>
       <c r="G48" s="2">
-        <v>-2.9719553999999999E-2</v>
+        <v>-1.3398960999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>50160000</v>
+        <v>80160000</v>
       </c>
       <c r="B49" s="2">
-        <v>-1.3536177999999999E-3</v>
+        <v>-1.0160144999999999E-3</v>
       </c>
       <c r="C49" s="2">
-        <v>-5.8868419999999998E-3</v>
+        <v>-5.9852880000000001E-3</v>
       </c>
       <c r="D49" s="2">
-        <v>1.2548215000000001E-3</v>
+        <v>4.8642533E-4</v>
       </c>
       <c r="E49" s="2">
-        <v>-0.16122843000000001</v>
+        <v>-0.21281030000000001</v>
       </c>
       <c r="F49" s="2">
-        <v>3.459642E-4</v>
+        <v>0.13263246000000001</v>
       </c>
       <c r="G49" s="2">
-        <v>-2.8208170000000001E-2</v>
+        <v>-1.3310212E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>51160000</v>
+        <v>81160000</v>
       </c>
       <c r="B50" s="2">
-        <v>-1.3479461000000001E-3</v>
+        <v>-1.0141231000000001E-3</v>
       </c>
       <c r="C50" s="2">
-        <v>-5.8833454E-3</v>
+        <v>-5.9947220000000001E-3</v>
       </c>
       <c r="D50" s="2">
-        <v>1.2404482E-3</v>
+        <v>4.6905957000000002E-4</v>
       </c>
       <c r="E50" s="2">
-        <v>-0.16128981000000001</v>
+        <v>-0.21504632000000001</v>
       </c>
       <c r="F50" s="2">
-        <v>-6.8415239999999997E-4</v>
+        <v>0.13475284000000001</v>
       </c>
       <c r="G50" s="2">
-        <v>-2.4796437000000001E-2</v>
+        <v>-1.2483381999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>52160000</v>
+        <v>82160000</v>
       </c>
       <c r="B51" s="2">
-        <v>-1.3394805000000001E-3</v>
+        <v>-1.0131783999999999E-3</v>
       </c>
       <c r="C51" s="2">
-        <v>-5.8798949999999996E-3</v>
+        <v>-5.9995194999999998E-3</v>
       </c>
       <c r="D51" s="2">
-        <v>1.2235047000000001E-3</v>
+        <v>4.4324012999999999E-4</v>
       </c>
       <c r="E51" s="2">
-        <v>-0.16127818999999999</v>
+        <v>-0.21561694000000001</v>
       </c>
       <c r="F51" s="2">
-        <v>-1.724632E-3</v>
+        <v>0.13723165000000001</v>
       </c>
       <c r="G51" s="2">
-        <v>-2.1935420000000001E-2</v>
+        <v>-1.097076E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>53160000</v>
+        <v>83160000</v>
       </c>
       <c r="B52" s="2">
-        <v>-1.3264023000000001E-3</v>
+        <v>-1.0135429E-3</v>
       </c>
       <c r="C52" s="2">
-        <v>-5.8703213000000001E-3</v>
+        <v>-6.0021620000000001E-3</v>
       </c>
       <c r="D52" s="2">
-        <v>1.1979779999999999E-3</v>
+        <v>4.1038667999999999E-4</v>
       </c>
       <c r="E52" s="2">
-        <v>-0.16100174</v>
+        <v>-0.21577293</v>
       </c>
       <c r="F52" s="2">
-        <v>-2.8552410000000001E-3</v>
+        <v>0.13967629000000001</v>
       </c>
       <c r="G52" s="2">
-        <v>-1.8491844E-2</v>
+        <v>-9.7688080000000004E-3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>54160000</v>
+        <v>84160000</v>
       </c>
       <c r="B53" s="2">
-        <v>-1.3180850000000001E-3</v>
+        <v>-1.0116925E-3</v>
       </c>
       <c r="C53" s="2">
-        <v>-5.8689214999999998E-3</v>
+        <v>-6.0130289999999996E-3</v>
       </c>
       <c r="D53" s="2">
-        <v>1.1625132000000001E-3</v>
+        <v>3.9366801999999999E-4</v>
       </c>
       <c r="E53" s="2">
-        <v>-0.16099100999999999</v>
+        <v>-0.21527304999999999</v>
       </c>
       <c r="F53" s="2">
-        <v>-3.6494930000000002E-3</v>
+        <v>0.14061797000000001</v>
       </c>
       <c r="G53" s="2">
-        <v>-1.5053571E-2</v>
+        <v>-7.8970289999999999E-3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>55160000</v>
+        <v>85160000</v>
       </c>
       <c r="B54" s="2">
-        <v>-1.3096638E-3</v>
+        <v>-1.0089749E-3</v>
       </c>
       <c r="C54" s="2">
-        <v>-5.8555070000000002E-3</v>
+        <v>-6.0257720000000004E-3</v>
       </c>
       <c r="D54" s="2">
-        <v>1.1358253999999999E-3</v>
+        <v>3.9198936E-4</v>
       </c>
       <c r="E54" s="2">
-        <v>-0.16059223</v>
+        <v>-0.21492523999999999</v>
       </c>
       <c r="F54" s="2">
-        <v>-4.0648979999999999E-3</v>
+        <v>0.14092827999999999</v>
       </c>
       <c r="G54" s="2">
-        <v>-1.0678696999999999E-2</v>
+        <v>-6.3745323999999997E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>56160000</v>
+        <v>86160000</v>
       </c>
       <c r="B55" s="2">
-        <v>-1.2961869E-3</v>
+        <v>-1.0183523E-3</v>
       </c>
       <c r="C55" s="2">
-        <v>-5.8444915E-3</v>
+        <v>-6.0379192999999998E-3</v>
       </c>
       <c r="D55" s="2">
-        <v>1.1018422999999999E-3</v>
+        <v>3.9728145999999998E-4</v>
       </c>
       <c r="E55" s="2">
-        <v>-0.16027844999999999</v>
+        <v>-0.21473753000000001</v>
       </c>
       <c r="F55" s="2">
-        <v>-4.6619084000000003E-3</v>
+        <v>0.14101843999999999</v>
       </c>
       <c r="G55" s="2">
-        <v>-7.1005983999999998E-3</v>
+        <v>-4.2167226999999998E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>57160000</v>
+        <v>87160000</v>
       </c>
       <c r="B56" s="2">
-        <v>-1.285572E-3</v>
+        <v>-1.0353437E-3</v>
       </c>
       <c r="C56" s="2">
-        <v>-5.8318450000000004E-3</v>
+        <v>-6.0452359999999998E-3</v>
       </c>
       <c r="D56" s="2">
-        <v>1.0653972999999999E-3</v>
+        <v>4.0558004000000001E-4</v>
       </c>
       <c r="E56" s="2">
-        <v>-0.15985685999999999</v>
+        <v>-0.21505258999999999</v>
       </c>
       <c r="F56" s="2">
-        <v>-4.8523107999999997E-3</v>
+        <v>0.14088285</v>
       </c>
       <c r="G56" s="2">
-        <v>-3.8161372999999999E-3</v>
+        <v>-2.4222059000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>58160000</v>
+        <v>88160000</v>
       </c>
       <c r="B57" s="2">
-        <v>-1.2556071E-3</v>
+        <v>-1.0738685999999999E-3</v>
       </c>
       <c r="C57" s="2">
-        <v>-5.8138254E-3</v>
+        <v>-6.0528963999999996E-3</v>
       </c>
       <c r="D57" s="2">
-        <v>1.0063736000000001E-3</v>
+        <v>4.1377820000000002E-4</v>
       </c>
       <c r="E57" s="2">
-        <v>-0.15910889</v>
+        <v>-0.21581605000000001</v>
       </c>
       <c r="F57" s="2">
-        <v>-4.7282367E-3</v>
+        <v>0.14045763</v>
       </c>
       <c r="G57" s="2">
-        <v>-1.177169E-3</v>
+        <v>-3.8081710000000002E-4</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>59160000</v>
+        <v>89160000</v>
       </c>
       <c r="B58" s="2">
-        <v>-1.2342410000000001E-3</v>
+        <v>-1.1106757E-3</v>
       </c>
       <c r="C58" s="2">
-        <v>-5.7941629999999997E-3</v>
+        <v>-6.0563724999999997E-3</v>
       </c>
       <c r="D58" s="2">
-        <v>9.6700474000000001E-4</v>
+        <v>4.1710035000000001E-4</v>
       </c>
       <c r="E58" s="2">
-        <v>-0.15834772999999999</v>
+        <v>-0.21652200999999999</v>
       </c>
       <c r="F58" s="2">
-        <v>-4.2963997E-3</v>
+        <v>0.14020836</v>
       </c>
       <c r="G58" s="2">
-        <v>4.5287915E-4</v>
+        <v>1.2734422999999999E-3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>60160000</v>
+        <v>90160000</v>
       </c>
       <c r="B59" s="2">
-        <v>-1.2282180000000001E-3</v>
+        <v>-1.1428857E-3</v>
       </c>
       <c r="C59" s="2">
-        <v>-5.7836514999999996E-3</v>
+        <v>-6.0536996000000003E-3</v>
       </c>
       <c r="D59" s="2">
-        <v>9.4829910000000003E-4</v>
+        <v>4.2108944000000001E-4</v>
       </c>
       <c r="E59" s="2">
-        <v>-0.15800843000000001</v>
+        <v>-0.21730182000000001</v>
       </c>
       <c r="F59" s="2">
-        <v>-4.4993059999999998E-3</v>
+        <v>0.14000546999999999</v>
       </c>
       <c r="G59" s="2">
-        <v>1.3054835E-3</v>
+        <v>8.5896446000000004E-4</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>61160000</v>
+        <v>91160000</v>
       </c>
       <c r="B60" s="2">
-        <v>-1.2295635000000001E-3</v>
+        <v>-1.1863948E-3</v>
       </c>
       <c r="C60" s="2">
-        <v>-5.7811844000000001E-3</v>
+        <v>-6.0511380000000002E-3</v>
       </c>
       <c r="D60" s="2">
-        <v>9.3338290000000005E-4</v>
+        <v>4.2647394000000001E-4</v>
       </c>
       <c r="E60" s="2">
-        <v>-0.15751190000000001</v>
+        <v>-0.21842133</v>
       </c>
       <c r="F60" s="2">
-        <v>-5.0651680000000001E-3</v>
+        <v>0.13947949000000001</v>
       </c>
       <c r="G60" s="2">
-        <v>1.9247136E-3</v>
+        <v>2.4277918E-4</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>62160000</v>
+        <v>92160000</v>
       </c>
       <c r="B61" s="2">
-        <v>-1.2438652000000001E-3</v>
+        <v>-1.2345907000000001E-3</v>
       </c>
       <c r="C61" s="2">
-        <v>-5.7808479999999999E-3</v>
+        <v>-6.0436144000000002E-3</v>
       </c>
       <c r="D61" s="2">
-        <v>9.041082E-4</v>
+        <v>4.2071449999999999E-4</v>
       </c>
       <c r="E61" s="2">
-        <v>-0.1573167</v>
+        <v>-0.21929707000000001</v>
       </c>
       <c r="F61" s="2">
-        <v>-4.6411891999999996E-3</v>
+        <v>0.1392246</v>
       </c>
       <c r="G61" s="2">
-        <v>2.0992237000000001E-3</v>
+        <v>2.077638E-4</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>63168000</v>
+        <v>93160000</v>
       </c>
       <c r="B62" s="2">
-        <v>-1.2668486000000001E-3</v>
+        <v>-1.2892356999999999E-3</v>
       </c>
       <c r="C62" s="2">
-        <v>-5.7885143999999999E-3</v>
+        <v>-6.0677500000000002E-3</v>
       </c>
       <c r="D62" s="2">
-        <v>9.1779203000000005E-4</v>
+        <v>3.9349985000000003E-4</v>
       </c>
       <c r="E62" s="2">
-        <v>-0.15712883999999999</v>
+        <v>-0.22099915000000001</v>
       </c>
       <c r="F62" s="2">
-        <v>-8.3864230000000001E-4</v>
+        <v>0.13810997999999999</v>
       </c>
       <c r="G62" s="2">
-        <v>1.7993355E-3</v>
+        <v>-7.5589994000000002E-4</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>64160000</v>
+        <v>94160000</v>
       </c>
       <c r="B63" s="2">
-        <v>-1.2720755000000001E-3</v>
+        <v>-1.3259631999999999E-3</v>
       </c>
       <c r="C63" s="2">
-        <v>-5.8089400000000003E-3</v>
+        <v>-6.1329072E-3</v>
       </c>
       <c r="D63" s="2">
-        <v>9.7054813999999999E-4</v>
+        <v>2.8685376E-4</v>
       </c>
       <c r="E63" s="2">
-        <v>-0.16085906</v>
+        <v>-0.22373314</v>
       </c>
       <c r="F63" s="2">
-        <v>6.0578975999999998E-3</v>
+        <v>0.13509059000000001</v>
       </c>
       <c r="G63" s="2">
-        <v>1.4005248999999999E-4</v>
+        <v>-1.8260397E-3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>65160000</v>
+        <v>95160000</v>
       </c>
       <c r="B64" s="2">
-        <v>-1.2651086E-3</v>
+        <v>-1.3357887999999999E-3</v>
       </c>
       <c r="C64" s="2">
-        <v>-5.8503575000000002E-3</v>
+        <v>-6.1613579999999996E-3</v>
       </c>
       <c r="D64" s="2">
-        <v>1.0198066E-3</v>
+        <v>2.0936526999999999E-4</v>
       </c>
       <c r="E64" s="2">
-        <v>-0.17099275999999999</v>
+        <v>-0.22486402</v>
       </c>
       <c r="F64" s="2">
-        <v>2.1596877E-2</v>
+        <v>0.13250171999999999</v>
       </c>
       <c r="G64" s="2">
-        <v>-1.6787654E-3</v>
+        <v>-1.457453E-3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>66160000</v>
+        <v>96160000</v>
       </c>
       <c r="B65" s="2">
-        <v>-1.2597190000000001E-3</v>
+        <v>-1.3411492000000001E-3</v>
       </c>
       <c r="C65" s="2">
-        <v>-5.9037865E-3</v>
+        <v>-6.1692359999999998E-3</v>
       </c>
       <c r="D65" s="2">
-        <v>9.8616789999999991E-4</v>
+        <v>1.7683905E-4</v>
       </c>
       <c r="E65" s="2">
-        <v>-0.18338284999999999</v>
+        <v>-0.22506651</v>
       </c>
       <c r="F65" s="2">
-        <v>5.0827353999999998E-2</v>
+        <v>0.13098818000000001</v>
       </c>
       <c r="G65" s="2">
-        <v>-3.5464184000000001E-3</v>
+        <v>-1.1069598999999999E-3</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>67160000</v>
+        <v>97160000</v>
       </c>
       <c r="B66" s="2">
-        <v>-1.2535726000000001E-3</v>
+        <v>-1.3485662999999999E-3</v>
       </c>
       <c r="C66" s="2">
-        <v>-5.9515903999999998E-3</v>
+        <v>-6.1741280000000001E-3</v>
       </c>
       <c r="D66" s="2">
-        <v>8.7713690000000002E-4</v>
+        <v>1.5620831999999999E-4</v>
       </c>
       <c r="E66" s="2">
-        <v>-0.19217846</v>
+        <v>-0.22559592000000001</v>
       </c>
       <c r="F66" s="2">
-        <v>8.2093159999999998E-2</v>
+        <v>0.12974793000000001</v>
       </c>
       <c r="G66" s="2">
-        <v>-5.1100800000000004E-3</v>
+        <v>-1.0234679E-3</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>68160000</v>
+        <v>98160000</v>
       </c>
       <c r="B67" s="2">
-        <v>-1.2385676000000001E-3</v>
+        <v>-1.3581049E-3</v>
       </c>
       <c r="C67" s="2">
-        <v>-5.9793275000000002E-3</v>
+        <v>-6.1730760000000004E-3</v>
       </c>
       <c r="D67" s="2">
-        <v>7.8063377000000005E-4</v>
+        <v>1.3670610000000001E-4</v>
       </c>
       <c r="E67" s="2">
-        <v>-0.1971928</v>
+        <v>-0.22673889</v>
       </c>
       <c r="F67" s="2">
-        <v>0.10309697</v>
+        <v>0.12878071999999999</v>
       </c>
       <c r="G67" s="2">
-        <v>-6.4934874000000002E-3</v>
+        <v>-3.4964219E-4</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>69160000</v>
+        <v>99168000</v>
       </c>
       <c r="B68" s="2">
-        <v>-1.2177599E-3</v>
+        <v>-1.3691866999999999E-3</v>
       </c>
       <c r="C68" s="2">
-        <v>-5.995106E-3</v>
+        <v>-6.1635789999999998E-3</v>
       </c>
       <c r="D68" s="2">
-        <v>7.1991700000000004E-4</v>
+        <v>1.2489466000000001E-4</v>
       </c>
       <c r="E68" s="2">
-        <v>-0.20028320999999999</v>
+        <v>-0.22786000000000001</v>
       </c>
       <c r="F68" s="2">
-        <v>0.11607459000000001</v>
+        <v>0.12882857</v>
       </c>
       <c r="G68" s="2">
-        <v>-7.8937940000000009E-3</v>
+        <v>-4.3234177E-4</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>70160000</v>
+        <v>100160000</v>
       </c>
       <c r="B69" s="2">
-        <v>-1.1979105999999999E-3</v>
+        <v>-1.3685977000000001E-3</v>
       </c>
       <c r="C69" s="2">
-        <v>-6.0017713999999996E-3</v>
+        <v>-6.1528829999999996E-3</v>
       </c>
       <c r="D69" s="2">
-        <v>6.9505203000000003E-4</v>
+        <v>1.05542356E-4</v>
       </c>
       <c r="E69" s="2">
-        <v>-0.20204574</v>
+        <v>-0.22846879</v>
       </c>
       <c r="F69" s="2">
-        <v>0.12220702999999999</v>
+        <v>0.12905860999999999</v>
       </c>
       <c r="G69" s="2">
-        <v>-9.0642850000000001E-3</v>
+        <v>-9.1963842999999998E-4</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>71160000</v>
+        <v>101160000</v>
       </c>
       <c r="B70" s="2">
-        <v>-1.1659076000000001E-3</v>
+        <v>-1.3669034E-3</v>
       </c>
       <c r="C70" s="2">
-        <v>-6.0083224000000001E-3</v>
-      </c>
-      <c r="D70" s="2">
-        <v>6.7659287000000005E-4</v>
+        <v>-6.1340550000000002E-3</v>
+      </c>
+      <c r="D70" s="3">
+        <v>8.9329389999999998E-5</v>
       </c>
       <c r="E70" s="2">
-        <v>-0.20323245000000001</v>
+        <v>-0.2294235</v>
       </c>
       <c r="F70" s="2">
-        <v>0.12659941999999999</v>
+        <v>0.12998101000000001</v>
       </c>
       <c r="G70" s="2">
-        <v>-1.0517432E-2</v>
+        <v>-2.5078996999999999E-3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>72160000</v>
+        <v>102160000</v>
       </c>
       <c r="B71" s="2">
-        <v>-1.1434552000000001E-3</v>
+        <v>-1.3542364999999999E-3</v>
       </c>
       <c r="C71" s="2">
-        <v>-6.0156569999999998E-3</v>
-      </c>
-      <c r="D71" s="2">
-        <v>6.7073800000000004E-4</v>
+        <v>-6.1155376000000001E-3</v>
+      </c>
+      <c r="D71" s="3">
+        <v>7.1771030000000003E-5</v>
       </c>
       <c r="E71" s="2">
-        <v>-0.20377793999999999</v>
+        <v>-0.23022844000000001</v>
       </c>
       <c r="F71" s="2">
-        <v>0.12848208999999999</v>
+        <v>0.13104725</v>
       </c>
       <c r="G71" s="2">
-        <v>-1.2588238E-2</v>
+        <v>-4.1373162999999999E-3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>73160000</v>
+        <v>103160000</v>
       </c>
       <c r="B72" s="2">
-        <v>-1.1310134000000001E-3</v>
+        <v>-1.3337242E-3</v>
       </c>
       <c r="C72" s="2">
-        <v>-6.0200564999999999E-3</v>
-      </c>
-      <c r="D72" s="2">
-        <v>6.7374809999999998E-4</v>
+        <v>-6.0901986E-3</v>
+      </c>
+      <c r="D72" s="3">
+        <v>6.2824690000000001E-5</v>
       </c>
       <c r="E72" s="2">
-        <v>-0.20394158000000001</v>
+        <v>-0.23100952999999999</v>
       </c>
       <c r="F72" s="2">
-        <v>0.12943134000000001</v>
+        <v>0.13238189</v>
       </c>
       <c r="G72" s="2">
-        <v>-1.3212946999999999E-2</v>
+        <v>-5.6788289999999998E-3</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>74160000</v>
+        <v>104160000</v>
       </c>
       <c r="B73" s="2">
-        <v>-1.122212E-3</v>
+        <v>-1.3094180999999999E-3</v>
       </c>
       <c r="C73" s="2">
-        <v>-6.0212677000000001E-3</v>
-      </c>
-      <c r="D73" s="2">
-        <v>6.7834130000000005E-4</v>
+        <v>-6.0725570000000001E-3</v>
+      </c>
+      <c r="D73" s="3">
+        <v>6.5600559999999994E-5</v>
       </c>
       <c r="E73" s="2">
-        <v>-0.20422219</v>
+        <v>-0.23176308000000001</v>
       </c>
       <c r="F73" s="2">
-        <v>0.12957536</v>
+        <v>0.13373910999999999</v>
       </c>
       <c r="G73" s="2">
-        <v>-1.4129417E-2</v>
+        <v>-6.6232219999999998E-3</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>75160000</v>
+        <v>105160000</v>
       </c>
       <c r="B74" s="2">
-        <v>-1.112364E-3</v>
+        <v>-1.2777392E-3</v>
       </c>
       <c r="C74" s="2">
-        <v>-6.0134050000000003E-3</v>
-      </c>
-      <c r="D74" s="2">
-        <v>6.7660335000000002E-4</v>
+        <v>-6.0616676E-3</v>
+      </c>
+      <c r="D74" s="3">
+        <v>6.8884576000000002E-5</v>
       </c>
       <c r="E74" s="2">
-        <v>-0.20447770000000001</v>
+        <v>-0.23179147</v>
       </c>
       <c r="F74" s="2">
-        <v>0.12945266</v>
+        <v>0.13495438000000001</v>
       </c>
       <c r="G74" s="2">
-        <v>-1.4800386E-2</v>
+        <v>-7.8203070000000003E-3</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>76160000</v>
+        <v>106160000</v>
       </c>
       <c r="B75" s="2">
-        <v>-1.0971309000000001E-3</v>
+        <v>-1.2564557999999999E-3</v>
       </c>
       <c r="C75" s="2">
-        <v>-5.9813517E-3</v>
-      </c>
-      <c r="D75" s="2">
-        <v>6.5191529999999998E-4</v>
+        <v>-6.0543832000000001E-3</v>
+      </c>
+      <c r="D75" s="3">
+        <v>5.3506574000000003E-5</v>
       </c>
       <c r="E75" s="2">
-        <v>-0.20500039</v>
+        <v>-0.23140578000000001</v>
       </c>
       <c r="F75" s="2">
-        <v>0.12961279000000001</v>
+        <v>0.13511973999999999</v>
       </c>
       <c r="G75" s="2">
-        <v>-1.4501248499999999E-2</v>
+        <v>-8.2775539999999995E-3</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>77160000</v>
+        <v>107160000</v>
       </c>
       <c r="B76" s="2">
-        <v>-1.0604612E-3</v>
+        <v>-1.2338181000000001E-3</v>
       </c>
       <c r="C76" s="2">
-        <v>-5.9638177000000004E-3</v>
-      </c>
-      <c r="D76" s="2">
-        <v>5.9765583000000004E-4</v>
+        <v>-6.0414574000000002E-3</v>
+      </c>
+      <c r="D76" s="3">
+        <v>3.5214820000000002E-5</v>
       </c>
       <c r="E76" s="2">
-        <v>-0.20592630000000001</v>
+        <v>-0.23007241</v>
       </c>
       <c r="F76" s="2">
-        <v>0.12960917</v>
+        <v>0.13512479999999999</v>
       </c>
       <c r="G76" s="2">
-        <v>-1.4255265E-2</v>
+        <v>-8.2422639999999991E-3</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>78160000</v>
+        <v>108160000</v>
       </c>
       <c r="B77" s="2">
-        <v>-1.0355919999999999E-3</v>
+        <v>-1.2253703E-3</v>
       </c>
       <c r="C77" s="2">
-        <v>-5.9662936000000003E-3</v>
-      </c>
-      <c r="D77" s="2">
-        <v>5.4179236999999996E-4</v>
+        <v>-6.0302257E-3</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1.8329809E-5</v>
       </c>
       <c r="E77" s="2">
-        <v>-0.20777369000000001</v>
+        <v>-0.22883086</v>
       </c>
       <c r="F77" s="2">
-        <v>0.12996167</v>
+        <v>0.13502861999999999</v>
       </c>
       <c r="G77" s="2">
-        <v>-1.4215243000000001E-2</v>
+        <v>-7.9691269999999995E-3</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>79160000</v>
+        <v>109160000</v>
       </c>
       <c r="B78" s="2">
-        <v>-1.0205501000000001E-3</v>
+        <v>-1.2262531999999999E-3</v>
       </c>
       <c r="C78" s="2">
-        <v>-5.9794085E-3</v>
-      </c>
-      <c r="D78" s="2">
-        <v>5.0216759999999997E-4</v>
+        <v>-6.0212434999999996E-3</v>
+      </c>
+      <c r="D78" s="3">
+        <v>5.1758999999999999E-6</v>
       </c>
       <c r="E78" s="2">
-        <v>-0.21074723000000001</v>
+        <v>-0.22777550999999999</v>
       </c>
       <c r="F78" s="2">
-        <v>0.13091237999999999</v>
+        <v>0.13532681999999999</v>
       </c>
       <c r="G78" s="2">
-        <v>-1.3398960999999999E-2</v>
+        <v>-7.6959250000000002E-3</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>80160000</v>
+        <v>110160000</v>
       </c>
       <c r="B79" s="2">
-        <v>-1.0160144999999999E-3</v>
+        <v>-1.2335790000000001E-3</v>
       </c>
       <c r="C79" s="2">
-        <v>-5.9852880000000001E-3</v>
-      </c>
-      <c r="D79" s="2">
-        <v>4.8642533E-4</v>
+        <v>-6.0168193000000002E-3</v>
+      </c>
+      <c r="D79" s="3">
+        <v>-1.5211076E-5</v>
       </c>
       <c r="E79" s="2">
-        <v>-0.21281030000000001</v>
+        <v>-0.22693627</v>
       </c>
       <c r="F79" s="2">
-        <v>0.13263246000000001</v>
+        <v>0.13596947000000001</v>
       </c>
       <c r="G79" s="2">
-        <v>-1.3310212E-2</v>
+        <v>-6.5028495000000004E-3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>81160000</v>
+        <v>111160000</v>
       </c>
       <c r="B80" s="2">
-        <v>-1.0141231000000001E-3</v>
+        <v>-1.2396813E-3</v>
       </c>
       <c r="C80" s="2">
-        <v>-5.9947220000000001E-3</v>
-      </c>
-      <c r="D80" s="2">
-        <v>4.6905957000000002E-4</v>
+        <v>-6.0155759999999999E-3</v>
+      </c>
+      <c r="D80" s="3">
+        <v>-2.7552634000000001E-5</v>
       </c>
       <c r="E80" s="2">
-        <v>-0.21504632000000001</v>
+        <v>-0.22692419999999999</v>
       </c>
       <c r="F80" s="2">
-        <v>0.13475284000000001</v>
+        <v>0.13738359999999999</v>
       </c>
       <c r="G80" s="2">
-        <v>-1.2483381999999999E-2</v>
+        <v>-5.0278976999999997E-3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>82160000</v>
+        <v>112160000</v>
       </c>
       <c r="B81" s="2">
-        <v>-1.0131783999999999E-3</v>
+        <v>-1.2452336999999999E-3</v>
       </c>
       <c r="C81" s="2">
-        <v>-5.9995194999999998E-3</v>
-      </c>
-      <c r="D81" s="2">
-        <v>4.4324012999999999E-4</v>
+        <v>-6.0106027000000001E-3</v>
+      </c>
+      <c r="D81" s="3">
+        <v>-3.5178929999999998E-5</v>
       </c>
       <c r="E81" s="2">
-        <v>-0.21561694000000001</v>
+        <v>-0.22641528</v>
       </c>
       <c r="F81" s="2">
-        <v>0.13723165000000001</v>
+        <v>0.13872200000000001</v>
       </c>
       <c r="G81" s="2">
-        <v>-1.097076E-2</v>
+        <v>-2.5126173000000001E-3</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>83160000</v>
+        <v>113160000</v>
       </c>
       <c r="B82" s="2">
-        <v>-1.0135429E-3</v>
+        <v>-1.249041E-3</v>
       </c>
       <c r="C82" s="2">
-        <v>-6.0021620000000001E-3</v>
-      </c>
-      <c r="D82" s="2">
-        <v>4.1038667999999999E-4</v>
+        <v>-6.0083059999999997E-3</v>
+      </c>
+      <c r="D82" s="3">
+        <v>-4.2015911999999998E-5</v>
       </c>
       <c r="E82" s="2">
-        <v>-0.21577293</v>
+        <v>-0.2265875</v>
       </c>
       <c r="F82" s="2">
-        <v>0.13967629000000001</v>
+        <v>0.14051886999999999</v>
       </c>
       <c r="G82" s="2">
-        <v>-9.7688080000000004E-3</v>
+        <v>9.3687505999999997E-4</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>84160000</v>
+        <v>114160000</v>
       </c>
       <c r="B83" s="2">
-        <v>-1.0116925E-3</v>
+        <v>-1.2485057E-3</v>
       </c>
       <c r="C83" s="2">
-        <v>-6.0130289999999996E-3</v>
-      </c>
-      <c r="D83" s="2">
-        <v>3.9366801999999999E-4</v>
+        <v>-6.0028992999999996E-3</v>
+      </c>
+      <c r="D83" s="3">
+        <v>-4.2316624E-5</v>
       </c>
       <c r="E83" s="2">
-        <v>-0.21527304999999999</v>
+        <v>-0.22762769999999999</v>
       </c>
       <c r="F83" s="2">
-        <v>0.14061797000000001</v>
+        <v>0.14246167000000001</v>
       </c>
       <c r="G83" s="2">
-        <v>-7.8970289999999999E-3</v>
+        <v>4.6661734000000002E-3</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>85160000</v>
+        <v>115160000</v>
       </c>
       <c r="B84" s="2">
-        <v>-1.0089749E-3</v>
+        <v>-1.2471015E-3</v>
       </c>
       <c r="C84" s="2">
-        <v>-6.0257720000000004E-3</v>
-      </c>
-      <c r="D84" s="2">
-        <v>3.9198936E-4</v>
+        <v>-5.9936646999999999E-3</v>
+      </c>
+      <c r="D84" s="3">
+        <v>-3.8654493000000002E-5</v>
       </c>
       <c r="E84" s="2">
-        <v>-0.21492523999999999</v>
+        <v>-0.22980170999999999</v>
       </c>
       <c r="F84" s="2">
-        <v>0.14092827999999999</v>
+        <v>0.14437040000000001</v>
       </c>
       <c r="G84" s="2">
-        <v>-6.3745323999999997E-3</v>
+        <v>7.4789629999999999E-3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>86160000</v>
+        <v>116160000</v>
       </c>
       <c r="B85" s="2">
-        <v>-1.0183523E-3</v>
+        <v>-1.2459368000000001E-3</v>
       </c>
       <c r="C85" s="2">
-        <v>-6.0379192999999998E-3</v>
-      </c>
-      <c r="D85" s="2">
-        <v>3.9728145999999998E-4</v>
+        <v>-5.9836550000000001E-3</v>
+      </c>
+      <c r="D85" s="3">
+        <v>-3.6456404000000003E-5</v>
       </c>
       <c r="E85" s="2">
-        <v>-0.21473753000000001</v>
+        <v>-0.23206442999999999</v>
       </c>
       <c r="F85" s="2">
-        <v>0.14101843999999999</v>
+        <v>0.14725727999999999</v>
       </c>
       <c r="G85" s="2">
-        <v>-4.2167226999999998E-3</v>
+        <v>8.3184220000000007E-3</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>87160000</v>
+        <v>117168000</v>
       </c>
       <c r="B86" s="2">
-        <v>-1.0353437E-3</v>
+        <v>-1.2385793E-3</v>
       </c>
       <c r="C86" s="2">
-        <v>-6.0452359999999998E-3</v>
-      </c>
-      <c r="D86" s="2">
-        <v>4.0558004000000001E-4</v>
+        <v>-5.9692260000000002E-3</v>
+      </c>
+      <c r="D86" s="3">
+        <v>-3.5809716999999997E-5</v>
       </c>
       <c r="E86" s="2">
-        <v>-0.21505258999999999</v>
+        <v>-0.23403293999999999</v>
       </c>
       <c r="F86" s="2">
-        <v>0.14088285</v>
+        <v>0.15032588</v>
       </c>
       <c r="G86" s="2">
-        <v>-2.4222059000000001E-3</v>
+        <v>8.7992060000000004E-3</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>88160000</v>
+        <v>118160000</v>
       </c>
       <c r="B87" s="2">
-        <v>-1.0738685999999999E-3</v>
+        <v>-1.2204573E-3</v>
       </c>
       <c r="C87" s="2">
-        <v>-6.0528963999999996E-3</v>
-      </c>
-      <c r="D87" s="2">
-        <v>4.1377820000000002E-4</v>
+        <v>-5.9516029999999998E-3</v>
+      </c>
+      <c r="D87" s="3">
+        <v>-3.5851713999999999E-5</v>
       </c>
       <c r="E87" s="2">
-        <v>-0.21581605000000001</v>
+        <v>-0.23512869</v>
       </c>
       <c r="F87" s="2">
-        <v>0.14045763</v>
+        <v>0.15381752000000001</v>
       </c>
       <c r="G87" s="2">
-        <v>-3.8081710000000002E-4</v>
+        <v>7.3267855000000003E-3</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>89160000</v>
+        <v>119160000</v>
       </c>
       <c r="B88" s="2">
-        <v>-1.1106757E-3</v>
+        <v>-1.2044970999999999E-3</v>
       </c>
       <c r="C88" s="2">
-        <v>-6.0563724999999997E-3</v>
-      </c>
-      <c r="D88" s="2">
-        <v>4.1710035000000001E-4</v>
+        <v>-5.9351539999999998E-3</v>
+      </c>
+      <c r="D88" s="3">
+        <v>-3.8892496000000003E-5</v>
       </c>
       <c r="E88" s="2">
-        <v>-0.21652200999999999</v>
+        <v>-0.23530546999999999</v>
       </c>
       <c r="F88" s="2">
-        <v>0.14020836</v>
+        <v>0.15631127</v>
       </c>
       <c r="G88" s="2">
-        <v>1.2734422999999999E-3</v>
+        <v>6.9357743000000001E-3</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>90160000</v>
+        <v>120160000</v>
       </c>
       <c r="B89" s="2">
-        <v>-1.1428857E-3</v>
+        <v>-1.1980716E-3</v>
       </c>
       <c r="C89" s="2">
-        <v>-6.0536996000000003E-3</v>
-      </c>
-      <c r="D89" s="2">
-        <v>4.2108944000000001E-4</v>
+        <v>-5.9194462000000002E-3</v>
+      </c>
+      <c r="D89" s="3">
+        <v>-3.5964870000000003E-5</v>
       </c>
       <c r="E89" s="2">
-        <v>-0.21730182000000001</v>
+        <v>-0.2347554</v>
       </c>
       <c r="F89" s="2">
-        <v>0.14000546999999999</v>
+        <v>0.15806982999999999</v>
       </c>
       <c r="G89" s="2">
-        <v>8.5896446000000004E-4</v>
+        <v>5.8423340000000002E-3</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>91160000</v>
+        <v>121160000</v>
       </c>
       <c r="B90" s="2">
-        <v>-1.1863948E-3</v>
+        <v>-1.1943819999999999E-3</v>
       </c>
       <c r="C90" s="2">
-        <v>-6.0511380000000002E-3</v>
-      </c>
-      <c r="D90" s="2">
-        <v>4.2647394000000001E-4</v>
+        <v>-5.9046083999999997E-3</v>
+      </c>
+      <c r="D90" s="3">
+        <v>-4.1539548000000002E-5</v>
       </c>
       <c r="E90" s="2">
-        <v>-0.21842133</v>
+        <v>-0.23417990999999999</v>
       </c>
       <c r="F90" s="2">
-        <v>0.13947949000000001</v>
+        <v>0.15919791</v>
       </c>
       <c r="G90" s="2">
-        <v>2.4277918E-4</v>
+        <v>4.5210959999999996E-3</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>92160000</v>
+        <v>122160000</v>
       </c>
       <c r="B91" s="2">
-        <v>-1.2345907000000001E-3</v>
+        <v>-1.1955252000000001E-3</v>
       </c>
       <c r="C91" s="2">
-        <v>-6.0436144000000002E-3</v>
-      </c>
-      <c r="D91" s="2">
-        <v>4.2071449999999999E-4</v>
+        <v>-5.8915349999999998E-3</v>
+      </c>
+      <c r="D91" s="3">
+        <v>-3.9514280000000001E-5</v>
       </c>
       <c r="E91" s="2">
-        <v>-0.21929707000000001</v>
+        <v>-0.23342597000000001</v>
       </c>
       <c r="F91" s="2">
-        <v>0.1392246</v>
+        <v>0.16027854</v>
       </c>
       <c r="G91" s="2">
-        <v>2.077638E-4</v>
+        <v>2.285352E-3</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>93160000</v>
+        <v>123160000</v>
       </c>
       <c r="B92" s="2">
-        <v>-1.2892356999999999E-3</v>
+        <v>-1.1928881000000001E-3</v>
       </c>
       <c r="C92" s="2">
-        <v>-6.0677500000000002E-3</v>
-      </c>
-      <c r="D92" s="2">
-        <v>3.9349985000000003E-4</v>
+        <v>-5.8814369999999998E-3</v>
+      </c>
+      <c r="D92" s="3">
+        <v>-4.3499060000000002E-5</v>
       </c>
       <c r="E92" s="2">
-        <v>-0.22099915000000001</v>
+        <v>-0.23276374999999999</v>
       </c>
       <c r="F92" s="2">
-        <v>0.13810997999999999</v>
+        <v>0.16134770000000001</v>
       </c>
       <c r="G92" s="2">
-        <v>-7.5589994000000002E-4</v>
+        <v>-1.0465798E-4</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>94160000</v>
+        <v>124160000</v>
       </c>
       <c r="B93" s="2">
-        <v>-1.3259631999999999E-3</v>
+        <v>-1.190534E-3</v>
       </c>
       <c r="C93" s="2">
-        <v>-6.1329072E-3</v>
-      </c>
-      <c r="D93" s="2">
-        <v>2.8685376E-4</v>
+        <v>-5.8765314000000001E-3</v>
+      </c>
+      <c r="D93" s="3">
+        <v>-4.8319343000000001E-5</v>
       </c>
       <c r="E93" s="2">
-        <v>-0.22373314</v>
+        <v>-0.23222163000000001</v>
       </c>
       <c r="F93" s="2">
-        <v>0.13509059000000001</v>
+        <v>0.16204256</v>
       </c>
       <c r="G93" s="2">
-        <v>-1.8260397E-3</v>
+        <v>-3.0786927999999999E-3</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>95160000</v>
+        <v>125167999</v>
       </c>
       <c r="B94" s="2">
-        <v>-1.3357887999999999E-3</v>
+        <v>-1.1910624E-3</v>
       </c>
       <c r="C94" s="2">
-        <v>-6.1613579999999996E-3</v>
-      </c>
-      <c r="D94" s="2">
-        <v>2.0936526999999999E-4</v>
+        <v>-5.8707515999999998E-3</v>
+      </c>
+      <c r="D94" s="3">
+        <v>-4.8001650000000001E-5</v>
       </c>
       <c r="E94" s="2">
-        <v>-0.22486402</v>
+        <v>-0.23158248000000001</v>
       </c>
       <c r="F94" s="2">
-        <v>0.13250171999999999</v>
+        <v>0.16256725999999999</v>
       </c>
       <c r="G94" s="2">
-        <v>-1.457453E-3</v>
+        <v>-5.6647696000000003E-3</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>96160000</v>
+        <v>126167999</v>
       </c>
       <c r="B95" s="2">
-        <v>-1.3411492000000001E-3</v>
+        <v>-1.1841442999999999E-3</v>
       </c>
       <c r="C95" s="2">
-        <v>-6.1692359999999998E-3</v>
-      </c>
-      <c r="D95" s="2">
-        <v>1.7683905E-4</v>
+        <v>-5.8696449999999997E-3</v>
+      </c>
+      <c r="D95" s="3">
+        <v>-5.768344E-5</v>
       </c>
       <c r="E95" s="2">
-        <v>-0.22506651</v>
+        <v>-0.23087768</v>
       </c>
       <c r="F95" s="2">
-        <v>0.13098818000000001</v>
+        <v>0.16302596</v>
       </c>
       <c r="G95" s="2">
-        <v>-1.1069598999999999E-3</v>
+        <v>-8.5775539999999994E-3</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>97160000</v>
+        <v>127167999</v>
       </c>
       <c r="B96" s="2">
-        <v>-1.3485662999999999E-3</v>
+        <v>-1.1731134000000001E-3</v>
       </c>
       <c r="C96" s="2">
-        <v>-6.1741280000000001E-3</v>
-      </c>
-      <c r="D96" s="2">
-        <v>1.5620831999999999E-4</v>
+        <v>-5.8658039999999996E-3</v>
+      </c>
+      <c r="D96" s="3">
+        <v>-7.0701746E-5</v>
       </c>
       <c r="E96" s="2">
-        <v>-0.22559592000000001</v>
+        <v>-0.23018447</v>
       </c>
       <c r="F96" s="2">
-        <v>0.12974793000000001</v>
+        <v>0.16403857999999999</v>
       </c>
       <c r="G96" s="2">
-        <v>-1.0234679E-3</v>
+        <v>-1.1105258E-2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>98160000</v>
+        <v>128167999</v>
       </c>
       <c r="B97" s="2">
-        <v>-1.3581049E-3</v>
+        <v>-1.1661781E-3</v>
       </c>
       <c r="C97" s="2">
-        <v>-6.1730760000000004E-3</v>
-      </c>
-      <c r="D97" s="2">
-        <v>1.3670610000000001E-4</v>
+        <v>-5.8638170000000003E-3</v>
+      </c>
+      <c r="D97" s="3">
+        <v>-8.5669365999999997E-5</v>
       </c>
       <c r="E97" s="2">
-        <v>-0.22673889</v>
+        <v>-0.22995131999999999</v>
       </c>
       <c r="F97" s="2">
-        <v>0.12878071999999999</v>
+        <v>0.16492485000000001</v>
       </c>
       <c r="G97" s="2">
-        <v>-3.4964219E-4</v>
+        <v>-1.2349367999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>99168000</v>
+        <v>129167999</v>
       </c>
       <c r="B98" s="2">
-        <v>-1.3691866999999999E-3</v>
+        <v>-1.1557358E-3</v>
       </c>
       <c r="C98" s="2">
-        <v>-6.1635789999999998E-3</v>
+        <v>-5.8612776999999996E-3</v>
       </c>
       <c r="D98" s="2">
-        <v>1.2489466000000001E-4</v>
+        <v>-1.1420108000000001E-4</v>
       </c>
       <c r="E98" s="2">
-        <v>-0.22786000000000001</v>
+        <v>-0.22987966000000001</v>
       </c>
       <c r="F98" s="2">
-        <v>0.12882857</v>
+        <v>0.16593521999999999</v>
       </c>
       <c r="G98" s="2">
-        <v>-4.3234177E-4</v>
+        <v>-1.2994778E-2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>100160000</v>
+        <v>130167999</v>
       </c>
       <c r="B99" s="2">
-        <v>-1.3685977000000001E-3</v>
+        <v>-1.1481656E-3</v>
       </c>
       <c r="C99" s="2">
-        <v>-6.1528829999999996E-3</v>
+        <v>-5.8566792999999997E-3</v>
       </c>
       <c r="D99" s="2">
-        <v>1.05542356E-4</v>
+        <v>-1.3865667E-4</v>
       </c>
       <c r="E99" s="2">
-        <v>-0.22846879</v>
+        <v>-0.23010351000000001</v>
       </c>
       <c r="F99" s="2">
-        <v>0.12905860999999999</v>
+        <v>0.16716433999999999</v>
       </c>
       <c r="G99" s="2">
-        <v>-9.1963842999999998E-4</v>
+        <v>-1.3326758500000001E-2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>101160000</v>
+        <v>131168000</v>
       </c>
       <c r="B100" s="2">
-        <v>-1.3669034E-3</v>
+        <v>-1.1449659E-3</v>
       </c>
       <c r="C100" s="2">
-        <v>-6.1340550000000002E-3</v>
-      </c>
-      <c r="D100" s="3">
-        <v>8.9329389999999998E-5</v>
+        <v>-5.8523669999999998E-3</v>
+      </c>
+      <c r="D100" s="2">
+        <v>-1.5401233000000001E-4</v>
       </c>
       <c r="E100" s="2">
-        <v>-0.2294235</v>
+        <v>-0.23030227</v>
       </c>
       <c r="F100" s="2">
-        <v>0.12998101000000001</v>
+        <v>0.16850457999999999</v>
       </c>
       <c r="G100" s="2">
-        <v>-2.5078996999999999E-3</v>
+        <v>-1.3326474E-2</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>102160000</v>
+        <v>132168000</v>
       </c>
       <c r="B101" s="2">
-        <v>-1.3542364999999999E-3</v>
+        <v>-1.1439115E-3</v>
       </c>
       <c r="C101" s="2">
-        <v>-6.1155376000000001E-3</v>
-      </c>
-      <c r="D101" s="3">
-        <v>7.1771030000000003E-5</v>
+        <v>-5.8465367000000001E-3</v>
+      </c>
+      <c r="D101" s="2">
+        <v>-1.6782175E-4</v>
       </c>
       <c r="E101" s="2">
-        <v>-0.23022844000000001</v>
+        <v>-0.23034911</v>
       </c>
       <c r="F101" s="2">
-        <v>0.13104725</v>
+        <v>0.17032109000000001</v>
       </c>
       <c r="G101" s="2">
-        <v>-4.1373162999999999E-3</v>
+        <v>-1.2559122000000001E-2</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>103160000</v>
+        <v>133168000</v>
       </c>
       <c r="B102" s="2">
-        <v>-1.3337242E-3</v>
+        <v>-1.1460301E-3</v>
       </c>
       <c r="C102" s="2">
-        <v>-6.0901986E-3</v>
-      </c>
-      <c r="D102" s="3">
-        <v>6.2824690000000001E-5</v>
+        <v>-5.8447565000000002E-3</v>
+      </c>
+      <c r="D102" s="2">
+        <v>-1.8247435E-4</v>
       </c>
       <c r="E102" s="2">
-        <v>-0.23100952999999999</v>
+        <v>-0.23067579999999999</v>
       </c>
       <c r="F102" s="2">
-        <v>0.13238189</v>
+        <v>0.17212804000000001</v>
       </c>
       <c r="G102" s="2">
-        <v>-5.6788289999999998E-3</v>
+        <v>-1.2026973E-2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>104160000</v>
+        <v>134168000</v>
       </c>
       <c r="B103" s="2">
-        <v>-1.3094180999999999E-3</v>
+        <v>-1.1517055E-3</v>
       </c>
       <c r="C103" s="2">
-        <v>-6.0725570000000001E-3</v>
-      </c>
-      <c r="D103" s="3">
-        <v>6.5600559999999994E-5</v>
+        <v>-5.8410409999999999E-3</v>
+      </c>
+      <c r="D103" s="2">
+        <v>-1.9496243000000001E-4</v>
       </c>
       <c r="E103" s="2">
-        <v>-0.23176308000000001</v>
+        <v>-0.23101282000000001</v>
       </c>
       <c r="F103" s="2">
-        <v>0.13373910999999999</v>
+        <v>0.17432095</v>
       </c>
       <c r="G103" s="2">
-        <v>-6.6232219999999998E-3</v>
+        <v>-1.0729181000000001E-2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>105160000</v>
+        <v>135168000</v>
       </c>
       <c r="B104" s="2">
-        <v>-1.2777392E-3</v>
+        <v>-1.1555726999999999E-3</v>
       </c>
       <c r="C104" s="2">
-        <v>-6.0616676E-3</v>
-      </c>
-      <c r="D104" s="3">
-        <v>6.8884576000000002E-5</v>
+        <v>-5.839159E-3</v>
+      </c>
+      <c r="D104" s="2">
+        <v>-1.9683208999999999E-4</v>
       </c>
       <c r="E104" s="2">
-        <v>-0.23179147</v>
+        <v>-0.23122408999999999</v>
       </c>
       <c r="F104" s="2">
-        <v>0.13495438000000001</v>
+        <v>0.17621988</v>
       </c>
       <c r="G104" s="2">
-        <v>-7.8203070000000003E-3</v>
+        <v>-8.9984004999999999E-3</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>106160000</v>
+        <v>136168000</v>
       </c>
       <c r="B105" s="2">
-        <v>-1.2564557999999999E-3</v>
+        <v>-1.1621346E-3</v>
       </c>
       <c r="C105" s="2">
-        <v>-6.0543832000000001E-3</v>
-      </c>
-      <c r="D105" s="3">
-        <v>5.3506574000000003E-5</v>
+        <v>-5.8361673999999999E-3</v>
+      </c>
+      <c r="D105" s="2">
+        <v>-1.9750629E-4</v>
       </c>
       <c r="E105" s="2">
-        <v>-0.23140578000000001</v>
+        <v>-0.23178266</v>
       </c>
       <c r="F105" s="2">
-        <v>0.13511973999999999</v>
+        <v>0.17878446000000001</v>
       </c>
       <c r="G105" s="2">
-        <v>-8.2775539999999995E-3</v>
+        <v>-8.1725849999999996E-3</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>107160000</v>
+        <v>137168000</v>
       </c>
       <c r="B106" s="2">
-        <v>-1.2338181000000001E-3</v>
+        <v>-1.1636904999999999E-3</v>
       </c>
       <c r="C106" s="2">
-        <v>-6.0414574000000002E-3</v>
-      </c>
-      <c r="D106" s="3">
-        <v>3.5214820000000002E-5</v>
+        <v>-5.8292559999999997E-3</v>
+      </c>
+      <c r="D106" s="2">
+        <v>-1.9265071999999999E-4</v>
       </c>
       <c r="E106" s="2">
-        <v>-0.23007241</v>
+        <v>-0.23228008999999999</v>
       </c>
       <c r="F106" s="2">
-        <v>0.13512479999999999</v>
+        <v>0.18094115</v>
       </c>
       <c r="G106" s="2">
-        <v>-8.2422639999999991E-3</v>
+        <v>-8.2878589999999999E-3</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>108160000</v>
+        <v>138168000</v>
       </c>
       <c r="B107" s="2">
-        <v>-1.2253703E-3</v>
+        <v>-1.1650833E-3</v>
       </c>
       <c r="C107" s="2">
-        <v>-6.0302257E-3</v>
-      </c>
-      <c r="D107" s="3">
-        <v>1.8329809E-5</v>
+        <v>-5.8164936E-3</v>
+      </c>
+      <c r="D107" s="2">
+        <v>-1.9736570000000001E-4</v>
       </c>
       <c r="E107" s="2">
-        <v>-0.22883086</v>
+        <v>-0.2331155</v>
       </c>
       <c r="F107" s="2">
-        <v>0.13502861999999999</v>
+        <v>0.18339800000000001</v>
       </c>
       <c r="G107" s="2">
-        <v>-7.9691269999999995E-3</v>
+        <v>-7.2399372999999998E-3</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>109160000</v>
+        <v>139168000</v>
       </c>
       <c r="B108" s="2">
-        <v>-1.2262531999999999E-3</v>
+        <v>-1.1652525E-3</v>
       </c>
       <c r="C108" s="2">
-        <v>-6.0212434999999996E-3</v>
-      </c>
-      <c r="D108" s="3">
-        <v>5.1758999999999999E-6</v>
+        <v>-5.7987070000000002E-3</v>
+      </c>
+      <c r="D108" s="2">
+        <v>-1.9694579999999999E-4</v>
       </c>
       <c r="E108" s="2">
-        <v>-0.22777550999999999</v>
+        <v>-0.23353602000000001</v>
       </c>
       <c r="F108" s="2">
-        <v>0.13532681999999999</v>
+        <v>0.18544355000000001</v>
       </c>
       <c r="G108" s="2">
-        <v>-7.6959250000000002E-3</v>
+        <v>-5.7969503E-3</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>110160000</v>
+        <v>140168000</v>
       </c>
       <c r="B109" s="2">
-        <v>-1.2335790000000001E-3</v>
+        <v>-1.1639174999999999E-3</v>
       </c>
       <c r="C109" s="2">
-        <v>-6.0168193000000002E-3</v>
-      </c>
-      <c r="D109" s="3">
-        <v>-1.5211076E-5</v>
+        <v>-5.7756739999999997E-3</v>
+      </c>
+      <c r="D109" s="2">
+        <v>-1.9271286E-4</v>
       </c>
       <c r="E109" s="2">
-        <v>-0.22693627</v>
+        <v>-0.23384215999999999</v>
       </c>
       <c r="F109" s="2">
-        <v>0.13596947000000001</v>
+        <v>0.18711022999999999</v>
       </c>
       <c r="G109" s="2">
-        <v>-6.5028495000000004E-3</v>
+        <v>-3.0497626999999999E-3</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>111160000</v>
+        <v>141168000</v>
       </c>
       <c r="B110" s="2">
-        <v>-1.2396813E-3</v>
+        <v>-1.1627813E-3</v>
       </c>
       <c r="C110" s="2">
-        <v>-6.0155759999999999E-3</v>
-      </c>
-      <c r="D110" s="3">
-        <v>-2.7552634000000001E-5</v>
+        <v>-5.7511673999999999E-3</v>
+      </c>
+      <c r="D110" s="2">
+        <v>-1.8342972999999999E-4</v>
       </c>
       <c r="E110" s="2">
-        <v>-0.22692419999999999</v>
+        <v>-0.23421914999999999</v>
       </c>
       <c r="F110" s="2">
-        <v>0.13738359999999999</v>
+        <v>0.18837066</v>
       </c>
       <c r="G110" s="2">
-        <v>-5.0278976999999997E-3</v>
+        <v>1.6393684E-4</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>112160000</v>
+        <v>142168000</v>
       </c>
       <c r="B111" s="2">
-        <v>-1.2452336999999999E-3</v>
+        <v>-1.1629208000000001E-3</v>
       </c>
       <c r="C111" s="2">
-        <v>-6.0106027000000001E-3</v>
-      </c>
-      <c r="D111" s="3">
-        <v>-3.5178929999999998E-5</v>
+        <v>-5.7304725000000001E-3</v>
+      </c>
+      <c r="D111" s="2">
+        <v>-1.7273715999999999E-4</v>
       </c>
       <c r="E111" s="2">
-        <v>-0.22641528</v>
+        <v>-0.23424614999999999</v>
       </c>
       <c r="F111" s="2">
-        <v>0.13872200000000001</v>
+        <v>0.18937736999999999</v>
       </c>
       <c r="G111" s="2">
-        <v>-2.5126173000000001E-3</v>
+        <v>3.0137184E-3</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>113160000</v>
+        <v>143168000</v>
       </c>
       <c r="B112" s="2">
-        <v>-1.249041E-3</v>
+        <v>-1.1633256E-3</v>
       </c>
       <c r="C112" s="2">
-        <v>-6.0083059999999997E-3</v>
-      </c>
-      <c r="D112" s="3">
-        <v>-4.2015911999999998E-5</v>
+        <v>-5.7050169999999997E-3</v>
+      </c>
+      <c r="D112" s="2">
+        <v>-1.6063519000000001E-4</v>
       </c>
       <c r="E112" s="2">
-        <v>-0.2265875</v>
+        <v>-0.23434738999999999</v>
       </c>
       <c r="F112" s="2">
-        <v>0.14051886999999999</v>
+        <v>0.19068526999999999</v>
       </c>
       <c r="G112" s="2">
-        <v>9.3687505999999997E-4</v>
+        <v>4.6550604000000001E-3</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>114160000</v>
+        <v>144168000</v>
       </c>
       <c r="B113" s="2">
-        <v>-1.2485057E-3</v>
+        <v>-1.1632954000000001E-3</v>
       </c>
       <c r="C113" s="2">
-        <v>-6.0028992999999996E-3</v>
-      </c>
-      <c r="D113" s="3">
-        <v>-4.2316624E-5</v>
+        <v>-5.6943245999999999E-3</v>
+      </c>
+      <c r="D113" s="2">
+        <v>-1.5075495000000001E-4</v>
       </c>
       <c r="E113" s="2">
-        <v>-0.22762769999999999</v>
+        <v>-0.23468455999999999</v>
       </c>
       <c r="F113" s="2">
-        <v>0.14246167000000001</v>
+        <v>0.19145603</v>
       </c>
       <c r="G113" s="2">
-        <v>4.6661734000000002E-3</v>
+        <v>4.8203969999999997E-3</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>115160000</v>
+        <v>145168000</v>
       </c>
       <c r="B114" s="2">
-        <v>-1.2471015E-3</v>
+        <v>-1.1633107000000001E-3</v>
       </c>
       <c r="C114" s="2">
-        <v>-5.9936646999999999E-3</v>
-      </c>
-      <c r="D114" s="3">
-        <v>-3.8654493000000002E-5</v>
+        <v>-5.6797660000000002E-3</v>
+      </c>
+      <c r="D114" s="2">
+        <v>-1.4534372999999999E-4</v>
       </c>
       <c r="E114" s="2">
-        <v>-0.22980170999999999</v>
+        <v>-0.23476727</v>
       </c>
       <c r="F114" s="2">
-        <v>0.14437040000000001</v>
+        <v>0.19235267</v>
       </c>
       <c r="G114" s="2">
-        <v>7.4789629999999999E-3</v>
+        <v>3.7314576999999999E-3</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>116160000</v>
+        <v>146168000</v>
       </c>
       <c r="B115" s="2">
-        <v>-1.2459368000000001E-3</v>
+        <v>-1.1675997999999999E-3</v>
       </c>
       <c r="C115" s="2">
-        <v>-5.9836550000000001E-3</v>
-      </c>
-      <c r="D115" s="3">
-        <v>-3.6456404000000003E-5</v>
+        <v>-5.6709102000000004E-3</v>
+      </c>
+      <c r="D115" s="2">
+        <v>-1.355641E-4</v>
       </c>
       <c r="E115" s="2">
-        <v>-0.23206442999999999</v>
+        <v>-0.23504862000000001</v>
       </c>
       <c r="F115" s="2">
-        <v>0.14725727999999999</v>
+        <v>0.19251715999999999</v>
       </c>
       <c r="G115" s="2">
-        <v>8.3184220000000007E-3</v>
+        <v>2.1277226000000001E-3</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>117168000</v>
+        <v>147168000</v>
       </c>
       <c r="B116" s="2">
-        <v>-1.2385793E-3</v>
+        <v>-1.16957E-3</v>
       </c>
       <c r="C116" s="2">
-        <v>-5.9692260000000002E-3</v>
-      </c>
-      <c r="D116" s="3">
-        <v>-3.5809716999999997E-5</v>
+        <v>-5.6742390000000002E-3</v>
+      </c>
+      <c r="D116" s="2">
+        <v>-1.3615248000000001E-4</v>
       </c>
       <c r="E116" s="2">
-        <v>-0.23403293999999999</v>
+        <v>-0.23554733</v>
       </c>
       <c r="F116" s="2">
-        <v>0.15032588</v>
+        <v>0.19207109999999999</v>
       </c>
       <c r="G116" s="2">
-        <v>8.7992060000000004E-3</v>
+        <v>7.0051773000000001E-4</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>118160000</v>
+        <v>148168000</v>
       </c>
       <c r="B117" s="2">
-        <v>-1.2204573E-3</v>
+        <v>-1.1616618000000001E-3</v>
       </c>
       <c r="C117" s="2">
-        <v>-5.9516029999999998E-3</v>
-      </c>
-      <c r="D117" s="3">
-        <v>-3.5851713999999999E-5</v>
+        <v>-5.6748064000000003E-3</v>
+      </c>
+      <c r="D117" s="2">
+        <v>-1.1667869E-4</v>
       </c>
       <c r="E117" s="2">
-        <v>-0.23512869</v>
+        <v>-0.23578404</v>
       </c>
       <c r="F117" s="2">
-        <v>0.15381752000000001</v>
+        <v>0.19065989999999999</v>
       </c>
       <c r="G117" s="2">
-        <v>7.3267855000000003E-3</v>
+        <v>-1.4379476E-3</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>119160000</v>
+        <v>149168000</v>
       </c>
       <c r="B118" s="2">
-        <v>-1.2044970999999999E-3</v>
+        <v>-1.1513932E-3</v>
       </c>
       <c r="C118" s="2">
-        <v>-5.9351539999999998E-3</v>
+        <v>-5.6699649999999999E-3</v>
       </c>
       <c r="D118" s="3">
-        <v>-3.8892496000000003E-5</v>
+        <v>-9.5166410000000005E-5</v>
       </c>
       <c r="E118" s="2">
-        <v>-0.23530546999999999</v>
+        <v>-0.23590045000000001</v>
       </c>
       <c r="F118" s="2">
-        <v>0.15631127</v>
+        <v>0.18983810000000001</v>
       </c>
       <c r="G118" s="2">
-        <v>6.9357743000000001E-3</v>
+        <v>-3.8627675000000002E-3</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>120160000</v>
+        <v>150168000</v>
       </c>
       <c r="B119" s="2">
-        <v>-1.1980716E-3</v>
+        <v>-1.1406809999999999E-3</v>
       </c>
       <c r="C119" s="2">
-        <v>-5.9194462000000002E-3</v>
+        <v>-5.6635569999999996E-3</v>
       </c>
       <c r="D119" s="3">
-        <v>-3.5964870000000003E-5</v>
+        <v>-8.1045130000000003E-5</v>
       </c>
       <c r="E119" s="2">
-        <v>-0.2347554</v>
+        <v>-0.23615016</v>
       </c>
       <c r="F119" s="2">
-        <v>0.15806982999999999</v>
+        <v>0.18917607</v>
       </c>
       <c r="G119" s="2">
-        <v>5.8423340000000002E-3</v>
+        <v>-5.8843395999999999E-3</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>121160000</v>
+        <v>151168000</v>
       </c>
       <c r="B120" s="2">
-        <v>-1.1943819999999999E-3</v>
+        <v>-1.1310465999999999E-3</v>
       </c>
       <c r="C120" s="2">
-        <v>-5.9046083999999997E-3</v>
+        <v>-5.6594890000000002E-3</v>
       </c>
       <c r="D120" s="3">
-        <v>-4.1539548000000002E-5</v>
+        <v>-7.3651790000000005E-5</v>
       </c>
       <c r="E120" s="2">
-        <v>-0.23417990999999999</v>
+        <v>-0.23682233999999999</v>
       </c>
       <c r="F120" s="2">
-        <v>0.15919791</v>
+        <v>0.18927109</v>
       </c>
       <c r="G120" s="2">
-        <v>4.5210959999999996E-3</v>
+        <v>-8.0208950000000001E-3</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>122160000</v>
+        <v>152168000</v>
       </c>
       <c r="B121" s="2">
-        <v>-1.1955252000000001E-3</v>
+        <v>-1.1224164999999999E-3</v>
       </c>
       <c r="C121" s="2">
-        <v>-5.8915349999999998E-3</v>
+        <v>-5.655223E-3</v>
       </c>
       <c r="D121" s="3">
-        <v>-3.9514280000000001E-5</v>
+        <v>-7.2138469999999998E-5</v>
       </c>
       <c r="E121" s="2">
-        <v>-0.23342597000000001</v>
+        <v>-0.23801568000000001</v>
       </c>
       <c r="F121" s="2">
-        <v>0.16027854</v>
+        <v>0.18963093</v>
       </c>
       <c r="G121" s="2">
-        <v>2.285352E-3</v>
+        <v>-1.0492397000000001E-2</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>123160000</v>
+        <v>153168000</v>
       </c>
       <c r="B122" s="2">
-        <v>-1.1928881000000001E-3</v>
+        <v>-1.109269E-3</v>
       </c>
       <c r="C122" s="2">
-        <v>-5.8814369999999998E-3</v>
+        <v>-5.6611904999999997E-3</v>
       </c>
       <c r="D122" s="3">
-        <v>-4.3499060000000002E-5</v>
+        <v>-7.3702360000000005E-5</v>
       </c>
       <c r="E122" s="2">
-        <v>-0.23276374999999999</v>
+        <v>-0.23985008999999999</v>
       </c>
       <c r="F122" s="2">
-        <v>0.16134770000000001</v>
+        <v>0.19126962</v>
       </c>
       <c r="G122" s="2">
-        <v>-1.0465798E-4</v>
+        <v>-1.2217535E-2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>124160000</v>
+        <v>154168000</v>
       </c>
       <c r="B123" s="2">
-        <v>-1.190534E-3</v>
+        <v>-1.0737118E-3</v>
       </c>
       <c r="C123" s="2">
-        <v>-5.8765314000000001E-3</v>
+        <v>-5.6690100000000004E-3</v>
       </c>
       <c r="D123" s="3">
-        <v>-4.8319343000000001E-5</v>
+        <v>-6.9926870000000001E-5</v>
       </c>
       <c r="E123" s="2">
-        <v>-0.23222163000000001</v>
+        <v>-0.24195854</v>
       </c>
       <c r="F123" s="2">
-        <v>0.16204256</v>
+        <v>0.19324864</v>
       </c>
       <c r="G123" s="2">
-        <v>-3.0786927999999999E-3</v>
+        <v>-1.5046603E-2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>125167999</v>
+        <v>155168000</v>
       </c>
       <c r="B124" s="2">
-        <v>-1.1910624E-3</v>
+        <v>-1.0292038000000001E-3</v>
       </c>
       <c r="C124" s="2">
-        <v>-5.8707515999999998E-3</v>
+        <v>-5.6765744999999999E-3</v>
       </c>
       <c r="D124" s="3">
-        <v>-4.8001650000000001E-5</v>
+        <v>-6.6462820000000005E-5</v>
       </c>
       <c r="E124" s="2">
-        <v>-0.23158248000000001</v>
+        <v>-0.24361858</v>
       </c>
       <c r="F124" s="2">
-        <v>0.16256725999999999</v>
+        <v>0.19503699999999999</v>
       </c>
       <c r="G124" s="2">
-        <v>-5.6647696000000003E-3</v>
+        <v>-1.7249051000000001E-2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>126167999</v>
+        <v>156168000</v>
       </c>
       <c r="B125" s="2">
-        <v>-1.1841442999999999E-3</v>
+        <v>-9.7657299999999989E-4</v>
       </c>
       <c r="C125" s="2">
-        <v>-5.8696449999999997E-3</v>
+        <v>-5.7024336E-3</v>
       </c>
       <c r="D125" s="3">
-        <v>-5.768344E-5</v>
+        <v>-5.81016E-5</v>
       </c>
       <c r="E125" s="2">
-        <v>-0.23087768</v>
+        <v>-0.24492663000000001</v>
       </c>
       <c r="F125" s="2">
-        <v>0.16302596</v>
+        <v>0.19711797</v>
       </c>
       <c r="G125" s="2">
-        <v>-8.5775539999999994E-3</v>
+        <v>-1.8093830000000002E-2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>127167999</v>
+        <v>157168000</v>
       </c>
       <c r="B126" s="2">
-        <v>-1.1731134000000001E-3</v>
+        <v>-9.188477E-4</v>
       </c>
       <c r="C126" s="2">
-        <v>-5.8658039999999996E-3</v>
+        <v>-5.7310965000000004E-3</v>
       </c>
       <c r="D126" s="3">
-        <v>-7.0701746E-5</v>
+        <v>-4.7207160000000002E-5</v>
       </c>
       <c r="E126" s="2">
-        <v>-0.23018447</v>
+        <v>-0.24616167</v>
       </c>
       <c r="F126" s="2">
-        <v>0.16403857999999999</v>
+        <v>0.19888893999999999</v>
       </c>
       <c r="G126" s="2">
-        <v>-1.1105258E-2</v>
+        <v>-1.872443E-2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>128167999</v>
+        <v>158168000</v>
       </c>
       <c r="B127" s="2">
-        <v>-1.1661781E-3</v>
+        <v>-8.5233789999999998E-4</v>
       </c>
       <c r="C127" s="2">
-        <v>-5.8638170000000003E-3</v>
+        <v>-5.7708159999999998E-3</v>
       </c>
       <c r="D127" s="3">
-        <v>-8.5669365999999997E-5</v>
+        <v>-2.6725873000000001E-5</v>
       </c>
       <c r="E127" s="2">
-        <v>-0.22995131999999999</v>
+        <v>-0.24736295999999999</v>
       </c>
       <c r="F127" s="2">
-        <v>0.16492485000000001</v>
+        <v>0.20054124000000001</v>
       </c>
       <c r="G127" s="2">
-        <v>-1.2349367999999999E-2</v>
+        <v>-1.9152293000000001E-2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>129167999</v>
+        <v>159168000</v>
       </c>
       <c r="B128" s="2">
-        <v>-1.1557358E-3</v>
+        <v>-7.9568830000000001E-4</v>
       </c>
       <c r="C128" s="2">
-        <v>-5.8612776999999996E-3</v>
-      </c>
-      <c r="D128" s="2">
-        <v>-1.1420108000000001E-4</v>
+        <v>-5.817025E-3</v>
+      </c>
+      <c r="D128" s="3">
+        <v>-1.6734808E-6</v>
       </c>
       <c r="E128" s="2">
-        <v>-0.22987966000000001</v>
+        <v>-0.24833121999999999</v>
       </c>
       <c r="F128" s="2">
-        <v>0.16593521999999999</v>
+        <v>0.20199727000000001</v>
       </c>
       <c r="G128" s="2">
-        <v>-1.2994778E-2</v>
+        <v>-2.0232534E-2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>130167999</v>
+        <v>160168000</v>
       </c>
       <c r="B129" s="2">
-        <v>-1.1481656E-3</v>
+        <v>-7.3352270000000004E-4</v>
       </c>
       <c r="C129" s="2">
-        <v>-5.8566792999999997E-3</v>
-      </c>
-      <c r="D129" s="2">
-        <v>-1.3865667E-4</v>
+        <v>-5.8473585999999998E-3</v>
+      </c>
+      <c r="D129" s="3">
+        <v>2.659022E-5</v>
       </c>
       <c r="E129" s="2">
-        <v>-0.23010351000000001</v>
+        <v>-0.24915466999999999</v>
       </c>
       <c r="F129" s="2">
-        <v>0.16716433999999999</v>
+        <v>0.20284559999999999</v>
       </c>
       <c r="G129" s="2">
-        <v>-1.3326758500000001E-2</v>
+        <v>-2.2157824E-2</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>131168000</v>
+        <v>161168000</v>
       </c>
       <c r="B130" s="2">
-        <v>-1.1449659E-3</v>
+        <v>-6.7180919999999995E-4</v>
       </c>
       <c r="C130" s="2">
-        <v>-5.8523669999999998E-3</v>
-      </c>
-      <c r="D130" s="2">
-        <v>-1.5401233000000001E-4</v>
+        <v>-5.8853539999999998E-3</v>
+      </c>
+      <c r="D130" s="3">
+        <v>5.3286864999999997E-5</v>
       </c>
       <c r="E130" s="2">
-        <v>-0.23030227</v>
+        <v>-0.25062925000000003</v>
       </c>
       <c r="F130" s="2">
-        <v>0.16850457999999999</v>
+        <v>0.20399342000000001</v>
       </c>
       <c r="G130" s="2">
-        <v>-1.3326474E-2</v>
+        <v>-2.3560859999999999E-2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>132168000</v>
+        <v>162168000</v>
       </c>
       <c r="B131" s="2">
-        <v>-1.1439115E-3</v>
+        <v>-6.4517779999999998E-4</v>
       </c>
       <c r="C131" s="2">
-        <v>-5.8465367000000001E-3</v>
-      </c>
-      <c r="D131" s="2">
-        <v>-1.6782175E-4</v>
+        <v>-5.9230094999999996E-3</v>
+      </c>
+      <c r="D131" s="3">
+        <v>7.6369324000000007E-5</v>
       </c>
       <c r="E131" s="2">
-        <v>-0.23034911</v>
+        <v>-0.2516738</v>
       </c>
       <c r="F131" s="2">
-        <v>0.17032109000000001</v>
+        <v>0.20535835999999999</v>
       </c>
       <c r="G131" s="2">
-        <v>-1.2559122000000001E-2</v>
+        <v>-2.6971748E-2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>133168000</v>
+        <v>163168000</v>
       </c>
       <c r="B132" s="2">
-        <v>-1.1460301E-3</v>
+        <v>-6.2293009999999998E-4</v>
       </c>
       <c r="C132" s="2">
-        <v>-5.8447565000000002E-3</v>
-      </c>
-      <c r="D132" s="2">
-        <v>-1.8247435E-4</v>
+        <v>-5.9581334000000001E-3</v>
+      </c>
+      <c r="D132" s="3">
+        <v>8.6223610000000006E-5</v>
       </c>
       <c r="E132" s="2">
-        <v>-0.23067579999999999</v>
+        <v>-0.25239545000000002</v>
       </c>
       <c r="F132" s="2">
-        <v>0.17212804000000001</v>
+        <v>0.20705104999999999</v>
       </c>
       <c r="G132" s="2">
-        <v>-1.2026973E-2</v>
+        <v>-3.0706963E-2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>134168000</v>
+        <v>164168000</v>
       </c>
       <c r="B133" s="2">
-        <v>-1.1517055E-3</v>
+        <v>-6.0784635999999996E-4</v>
       </c>
       <c r="C133" s="2">
-        <v>-5.8410409999999999E-3</v>
-      </c>
-      <c r="D133" s="2">
-        <v>-1.9496243000000001E-4</v>
+        <v>-6.0090613999999997E-3</v>
+      </c>
+      <c r="D133" s="3">
+        <v>8.4714200000000003E-5</v>
       </c>
       <c r="E133" s="2">
-        <v>-0.23101282000000001</v>
+        <v>-0.25359783000000002</v>
       </c>
       <c r="F133" s="2">
-        <v>0.17432095</v>
+        <v>0.20885893999999999</v>
       </c>
       <c r="G133" s="2">
-        <v>-1.0729181000000001E-2</v>
+        <v>-3.3504784000000003E-2</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>135168000</v>
+        <v>165168000</v>
       </c>
       <c r="B134" s="2">
-        <v>-1.1555726999999999E-3</v>
+        <v>-5.8496895000000005E-4</v>
       </c>
       <c r="C134" s="2">
-        <v>-5.839159E-3</v>
-      </c>
-      <c r="D134" s="2">
-        <v>-1.9683208999999999E-4</v>
+        <v>-6.0450397000000001E-3</v>
+      </c>
+      <c r="D134" s="3">
+        <v>7.7318870000000001E-5</v>
       </c>
       <c r="E134" s="2">
-        <v>-0.23122408999999999</v>
+        <v>-0.25492387999999999</v>
       </c>
       <c r="F134" s="2">
-        <v>0.17621988</v>
+        <v>0.20964321</v>
       </c>
       <c r="G134" s="2">
-        <v>-8.9984004999999999E-3</v>
+        <v>-3.4875546E-2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>136168000</v>
+        <v>166168000</v>
       </c>
       <c r="B135" s="2">
-        <v>-1.1621346E-3</v>
+        <v>-5.6611070000000001E-4</v>
       </c>
       <c r="C135" s="2">
-        <v>-5.8361673999999999E-3</v>
-      </c>
-      <c r="D135" s="2">
-        <v>-1.9750629E-4</v>
+        <v>-6.0452613999999998E-3</v>
+      </c>
+      <c r="D135" s="3">
+        <v>7.0461970000000002E-5</v>
       </c>
       <c r="E135" s="2">
-        <v>-0.23178266</v>
+        <v>-0.25540990000000002</v>
       </c>
       <c r="F135" s="2">
-        <v>0.17878446000000001</v>
+        <v>0.20946094000000001</v>
       </c>
       <c r="G135" s="2">
-        <v>-8.1725849999999996E-3</v>
+        <v>-3.5891871999999998E-2</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>137168000</v>
+        <v>167168000</v>
       </c>
       <c r="B136" s="2">
-        <v>-1.1636904999999999E-3</v>
+        <v>-5.5844070000000002E-4</v>
       </c>
       <c r="C136" s="2">
-        <v>-5.8292559999999997E-3</v>
-      </c>
-      <c r="D136" s="2">
-        <v>-1.9265071999999999E-4</v>
+        <v>-6.0372395000000004E-3</v>
+      </c>
+      <c r="D136" s="3">
+        <v>7.5989534000000001E-5</v>
       </c>
       <c r="E136" s="2">
-        <v>-0.23228008999999999</v>
+        <v>-0.25586579999999998</v>
       </c>
       <c r="F136" s="2">
-        <v>0.18094115</v>
+        <v>0.20931781999999999</v>
       </c>
       <c r="G136" s="2">
-        <v>-8.2878589999999999E-3</v>
+        <v>-3.6094914999999998E-2</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>138168000</v>
+        <v>168168000</v>
       </c>
       <c r="B137" s="2">
-        <v>-1.1650833E-3</v>
+        <v>-5.5850460000000002E-4</v>
       </c>
       <c r="C137" s="2">
-        <v>-5.8164936E-3</v>
-      </c>
-      <c r="D137" s="2">
-        <v>-1.9736570000000001E-4</v>
+        <v>-6.014386E-3</v>
+      </c>
+      <c r="D137" s="3">
+        <v>9.3488656000000005E-5</v>
       </c>
       <c r="E137" s="2">
-        <v>-0.2331155</v>
+        <v>-0.25583526000000001</v>
       </c>
       <c r="F137" s="2">
-        <v>0.18339800000000001</v>
+        <v>0.2098421</v>
       </c>
       <c r="G137" s="2">
-        <v>-7.2399372999999998E-3</v>
+        <v>-3.6670956999999997E-2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>139168000</v>
+        <v>169168000</v>
       </c>
       <c r="B138" s="2">
-        <v>-1.1652525E-3</v>
+        <v>-5.6673149999999996E-4</v>
       </c>
       <c r="C138" s="2">
-        <v>-5.7987070000000002E-3</v>
+        <v>-5.9946673000000001E-3</v>
       </c>
       <c r="D138" s="2">
-        <v>-1.9694579999999999E-4</v>
+        <v>1.1651231000000001E-4</v>
       </c>
       <c r="E138" s="2">
-        <v>-0.23353602000000001</v>
+        <v>-0.25594090000000003</v>
       </c>
       <c r="F138" s="2">
-        <v>0.18544355000000001</v>
+        <v>0.21106637</v>
       </c>
       <c r="G138" s="2">
-        <v>-5.7969503E-3</v>
+        <v>-3.6997158000000002E-2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>140168000</v>
+        <v>170168000</v>
       </c>
       <c r="B139" s="2">
-        <v>-1.1639174999999999E-3</v>
+        <v>-5.8640649999999999E-4</v>
       </c>
       <c r="C139" s="2">
-        <v>-5.7756739999999997E-3</v>
+        <v>-5.9707400000000004E-3</v>
       </c>
       <c r="D139" s="2">
-        <v>-1.9271286E-4</v>
+        <v>1.2781199E-4</v>
       </c>
       <c r="E139" s="2">
-        <v>-0.23384215999999999</v>
+        <v>-0.25650840000000003</v>
       </c>
       <c r="F139" s="2">
-        <v>0.18711022999999999</v>
+        <v>0.2132493</v>
       </c>
       <c r="G139" s="2">
-        <v>-3.0497626999999999E-3</v>
+        <v>-3.6993943000000001E-2</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>141168000</v>
+        <v>171168000</v>
       </c>
       <c r="B140" s="2">
-        <v>-1.1627813E-3</v>
+        <v>-5.9626480000000005E-4</v>
       </c>
       <c r="C140" s="2">
-        <v>-5.7511673999999999E-3</v>
+        <v>-5.9512920000000004E-3</v>
       </c>
       <c r="D140" s="2">
-        <v>-1.8342972999999999E-4</v>
+        <v>1.4215709000000001E-4</v>
       </c>
       <c r="E140" s="2">
-        <v>-0.23421914999999999</v>
+        <v>-0.25708039999999999</v>
       </c>
       <c r="F140" s="2">
-        <v>0.18837066</v>
+        <v>0.21525728999999999</v>
       </c>
       <c r="G140" s="2">
-        <v>1.6393684E-4</v>
+        <v>-3.7592599999999997E-2</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>142168000</v>
+        <v>172168000</v>
       </c>
       <c r="B141" s="2">
-        <v>-1.1629208000000001E-3</v>
+        <v>-6.0465925999999995E-4</v>
       </c>
       <c r="C141" s="2">
-        <v>-5.7304725000000001E-3</v>
+        <v>-5.9411109999999998E-3</v>
       </c>
       <c r="D141" s="2">
-        <v>-1.7273715999999999E-4</v>
+        <v>1.515008E-4</v>
       </c>
       <c r="E141" s="2">
-        <v>-0.23424614999999999</v>
+        <v>-0.25761773999999998</v>
       </c>
       <c r="F141" s="2">
-        <v>0.18937736999999999</v>
+        <v>0.21683757000000001</v>
       </c>
       <c r="G141" s="2">
-        <v>3.0137184E-3</v>
+        <v>-3.7652049999999999E-2</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>143168000</v>
+        <v>173168000</v>
       </c>
       <c r="B142" s="2">
-        <v>-1.1633256E-3</v>
+        <v>-6.0784887000000002E-4</v>
       </c>
       <c r="C142" s="2">
-        <v>-5.7050169999999997E-3</v>
+        <v>-5.9304014000000002E-3</v>
       </c>
       <c r="D142" s="2">
-        <v>-1.6063519000000001E-4</v>
+        <v>1.636672E-4</v>
       </c>
       <c r="E142" s="2">
-        <v>-0.23434738999999999</v>
+        <v>-0.25828830000000003</v>
       </c>
       <c r="F142" s="2">
-        <v>0.19068526999999999</v>
+        <v>0.21840666</v>
       </c>
       <c r="G142" s="2">
-        <v>4.6550604000000001E-3</v>
+        <v>-3.9560985E-2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>144168000</v>
+        <v>174168000</v>
       </c>
       <c r="B143" s="2">
-        <v>-1.1632954000000001E-3</v>
+        <v>-6.0663564000000005E-4</v>
       </c>
       <c r="C143" s="2">
-        <v>-5.6943245999999999E-3</v>
+        <v>-5.9210850000000004E-3</v>
       </c>
       <c r="D143" s="2">
-        <v>-1.5075495000000001E-4</v>
+        <v>1.7521042999999999E-4</v>
       </c>
       <c r="E143" s="2">
-        <v>-0.23468455999999999</v>
+        <v>-0.25891024000000001</v>
       </c>
       <c r="F143" s="2">
-        <v>0.19145603</v>
+        <v>0.21959960000000001</v>
       </c>
       <c r="G143" s="2">
-        <v>4.8203969999999997E-3</v>
+        <v>-3.9505894999999999E-2</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>145168000</v>
+        <v>175168000</v>
       </c>
       <c r="B144" s="2">
-        <v>-1.1633107000000001E-3</v>
+        <v>-6.0309790000000001E-4</v>
       </c>
       <c r="C144" s="2">
-        <v>-5.6797660000000002E-3</v>
+        <v>-5.9024009999999998E-3</v>
       </c>
       <c r="D144" s="2">
-        <v>-1.4534372999999999E-4</v>
+        <v>1.7359058000000001E-4</v>
       </c>
       <c r="E144" s="2">
-        <v>-0.23476727</v>
+        <v>-0.2597062</v>
       </c>
       <c r="F144" s="2">
-        <v>0.19235267</v>
+        <v>0.22042607</v>
       </c>
       <c r="G144" s="2">
-        <v>3.7314576999999999E-3</v>
+        <v>-4.0510945E-2</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>146168000</v>
+        <v>176168000</v>
       </c>
       <c r="B145" s="2">
-        <v>-1.1675997999999999E-3</v>
+        <v>-5.9715440000000005E-4</v>
       </c>
       <c r="C145" s="2">
-        <v>-5.6709102000000004E-3</v>
+        <v>-5.8936989999999996E-3</v>
       </c>
       <c r="D145" s="2">
-        <v>-1.355641E-4</v>
+        <v>1.7852205000000001E-4</v>
       </c>
       <c r="E145" s="2">
-        <v>-0.23504862000000001</v>
+        <v>-0.26018112999999998</v>
       </c>
       <c r="F145" s="2">
-        <v>0.19251715999999999</v>
+        <v>0.22111808999999999</v>
       </c>
       <c r="G145" s="2">
-        <v>2.1277226000000001E-3</v>
+        <v>-4.0983065999999999E-2</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>147168000</v>
+        <v>177168000</v>
       </c>
       <c r="B146" s="2">
-        <v>-1.16957E-3</v>
+        <v>-5.9090439999999998E-4</v>
       </c>
       <c r="C146" s="2">
-        <v>-5.6742390000000002E-3</v>
+        <v>-5.8868634999999997E-3</v>
       </c>
       <c r="D146" s="2">
-        <v>-1.3615248000000001E-4</v>
+        <v>1.8849007E-4</v>
       </c>
       <c r="E146" s="2">
-        <v>-0.23554733</v>
+        <v>-0.26092981999999998</v>
       </c>
       <c r="F146" s="2">
-        <v>0.19207109999999999</v>
+        <v>0.22166061000000001</v>
       </c>
       <c r="G146" s="2">
-        <v>7.0051773000000001E-4</v>
+        <v>-4.0194870000000001E-2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>148168000</v>
+        <v>178168000</v>
       </c>
       <c r="B147" s="2">
-        <v>-1.1616618000000001E-3</v>
+        <v>-5.8485945999999997E-4</v>
       </c>
       <c r="C147" s="2">
-        <v>-5.6748064000000003E-3</v>
+        <v>-5.8799046000000002E-3</v>
       </c>
       <c r="D147" s="2">
-        <v>-1.1667869E-4</v>
+        <v>1.9203030000000001E-4</v>
       </c>
       <c r="E147" s="2">
-        <v>-0.23578404</v>
+        <v>-0.26136379999999998</v>
       </c>
       <c r="F147" s="2">
-        <v>0.19065989999999999</v>
+        <v>0.22193589999999999</v>
       </c>
       <c r="G147" s="2">
-        <v>-1.4379476E-3</v>
+        <v>-3.8505490000000003E-2</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>149168000</v>
+        <v>179168000</v>
       </c>
       <c r="B148" s="2">
-        <v>-1.1513932E-3</v>
+        <v>-5.7551526999999997E-4</v>
       </c>
       <c r="C148" s="2">
-        <v>-5.6699649999999999E-3</v>
-      </c>
-      <c r="D148" s="3">
-        <v>-9.5166410000000005E-5</v>
+        <v>-5.8851279999999999E-3</v>
+      </c>
+      <c r="D148" s="2">
+        <v>2.0488314999999999E-4</v>
       </c>
       <c r="E148" s="2">
-        <v>-0.23590045000000001</v>
+        <v>-0.26178849999999998</v>
       </c>
       <c r="F148" s="2">
-        <v>0.18983810000000001</v>
+        <v>0.22269621000000001</v>
       </c>
       <c r="G148" s="2">
-        <v>-3.8627675000000002E-3</v>
+        <v>-3.6538920000000003E-2</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>150168000</v>
+        <v>180168000</v>
       </c>
       <c r="B149" s="2">
-        <v>-1.1406809999999999E-3</v>
+        <v>-5.6329630000000002E-4</v>
       </c>
       <c r="C149" s="2">
-        <v>-5.6635569999999996E-3</v>
-      </c>
-      <c r="D149" s="3">
-        <v>-8.1045130000000003E-5</v>
+        <v>-5.8925419999999997E-3</v>
+      </c>
+      <c r="D149" s="2">
+        <v>2.0678864E-4</v>
       </c>
       <c r="E149" s="2">
-        <v>-0.23615016</v>
+        <v>-0.26193001999999999</v>
       </c>
       <c r="F149" s="2">
-        <v>0.18917607</v>
+        <v>0.22317880000000001</v>
       </c>
       <c r="G149" s="2">
-        <v>-5.8843395999999999E-3</v>
+        <v>-3.4821756000000002E-2</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>151168000</v>
+        <v>181168000</v>
       </c>
       <c r="B150" s="2">
-        <v>-1.1310465999999999E-3</v>
+        <v>-5.4904474999999998E-4</v>
       </c>
       <c r="C150" s="2">
-        <v>-5.6594890000000002E-3</v>
-      </c>
-      <c r="D150" s="3">
-        <v>-7.3651790000000005E-5</v>
+        <v>-5.9102369999999996E-3</v>
+      </c>
+      <c r="D150" s="2">
+        <v>2.0987366000000001E-4</v>
       </c>
       <c r="E150" s="2">
-        <v>-0.23682233999999999</v>
+        <v>-0.26222220000000002</v>
       </c>
       <c r="F150" s="2">
-        <v>0.18927109</v>
+        <v>0.22374584</v>
       </c>
       <c r="G150" s="2">
-        <v>-8.0208950000000001E-3</v>
+        <v>-3.3181797999999998E-2</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>152168000</v>
+        <v>182168000</v>
       </c>
       <c r="B151" s="2">
-        <v>-1.1224164999999999E-3</v>
+        <v>-5.4668350000000002E-4</v>
       </c>
       <c r="C151" s="2">
-        <v>-5.655223E-3</v>
-      </c>
-      <c r="D151" s="3">
-        <v>-7.2138469999999998E-5</v>
+        <v>-5.9182495000000002E-3</v>
+      </c>
+      <c r="D151" s="2">
+        <v>2.10106E-4</v>
       </c>
       <c r="E151" s="2">
-        <v>-0.23801568000000001</v>
+        <v>-0.26225173000000002</v>
       </c>
       <c r="F151" s="2">
-        <v>0.18963093</v>
+        <v>0.22430760999999999</v>
       </c>
       <c r="G151" s="2">
-        <v>-1.0492397000000001E-2</v>
+        <v>-3.1483012999999997E-2</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>153168000</v>
+        <v>183168000</v>
       </c>
       <c r="B152" s="2">
-        <v>-1.109269E-3</v>
+        <v>-5.403421E-4</v>
       </c>
       <c r="C152" s="2">
-        <v>-5.6611904999999997E-3</v>
-      </c>
-      <c r="D152" s="3">
-        <v>-7.3702360000000005E-5</v>
+        <v>-5.9293840000000002E-3</v>
+      </c>
+      <c r="D152" s="2">
+        <v>2.1151319999999999E-4</v>
       </c>
       <c r="E152" s="2">
-        <v>-0.23985008999999999</v>
+        <v>-0.26241110000000001</v>
       </c>
       <c r="F152" s="2">
-        <v>0.19126962</v>
+        <v>0.22466163</v>
       </c>
       <c r="G152" s="2">
-        <v>-1.2217535E-2</v>
+        <v>-3.004689E-2</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>154168000</v>
+        <v>184168000</v>
       </c>
       <c r="B153" s="2">
-        <v>-1.0737118E-3</v>
+        <v>-5.3114763999999998E-4</v>
       </c>
       <c r="C153" s="2">
-        <v>-5.6690100000000004E-3</v>
-      </c>
-      <c r="D153" s="3">
-        <v>-6.9926870000000001E-5</v>
+        <v>-5.9360918000000004E-3</v>
+      </c>
+      <c r="D153" s="2">
+        <v>2.1288103000000001E-4</v>
       </c>
       <c r="E153" s="2">
-        <v>-0.24195854</v>
+        <v>-0.26254746000000001</v>
       </c>
       <c r="F153" s="2">
-        <v>0.19324864</v>
+        <v>0.22476913000000001</v>
       </c>
       <c r="G153" s="2">
-        <v>-1.5046603E-2</v>
+        <v>-2.7872032000000001E-2</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>155168000</v>
+        <v>185168000</v>
       </c>
       <c r="B154" s="2">
-        <v>-1.0292038000000001E-3</v>
+        <v>-5.3492299999999997E-4</v>
       </c>
       <c r="C154" s="2">
-        <v>-5.6765744999999999E-3</v>
-      </c>
-      <c r="D154" s="3">
-        <v>-6.6462820000000005E-5</v>
+        <v>-5.9420923E-3</v>
+      </c>
+      <c r="D154" s="2">
+        <v>2.0892841999999999E-4</v>
       </c>
       <c r="E154" s="2">
-        <v>-0.24361858</v>
+        <v>-0.26255060000000002</v>
       </c>
       <c r="F154" s="2">
-        <v>0.19503699999999999</v>
+        <v>0.22498232000000001</v>
       </c>
       <c r="G154" s="2">
-        <v>-1.7249051000000001E-2</v>
+        <v>-2.7502174000000001E-2</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>156168000</v>
+        <v>186168000</v>
       </c>
       <c r="B155" s="2">
-        <v>-9.7657299999999989E-4</v>
+        <v>-5.3666529999999997E-4</v>
       </c>
       <c r="C155" s="2">
-        <v>-5.7024336E-3</v>
-      </c>
-      <c r="D155" s="3">
-        <v>-5.81016E-5</v>
+        <v>-5.9473649999999996E-3</v>
+      </c>
+      <c r="D155" s="2">
+        <v>2.0728106E-4</v>
       </c>
       <c r="E155" s="2">
-        <v>-0.24492663000000001</v>
+        <v>-0.26261726000000002</v>
       </c>
       <c r="F155" s="2">
-        <v>0.19711797</v>
+        <v>0.22505833</v>
       </c>
       <c r="G155" s="2">
-        <v>-1.8093830000000002E-2</v>
+        <v>-2.7583923E-2</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>157168000</v>
+        <v>187168000</v>
       </c>
       <c r="B156" s="2">
-        <v>-9.188477E-4</v>
+        <v>-5.4165756000000001E-4</v>
       </c>
       <c r="C156" s="2">
-        <v>-5.7310965000000004E-3</v>
-      </c>
-      <c r="D156" s="3">
-        <v>-4.7207160000000002E-5</v>
+        <v>-5.9587466999999998E-3</v>
+      </c>
+      <c r="D156" s="2">
+        <v>2.0956147999999999E-4</v>
       </c>
       <c r="E156" s="2">
-        <v>-0.24616167</v>
+        <v>-0.26274416</v>
       </c>
       <c r="F156" s="2">
-        <v>0.19888893999999999</v>
+        <v>0.2252557</v>
       </c>
       <c r="G156" s="2">
-        <v>-1.872443E-2</v>
+        <v>-2.8275854999999999E-2</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>158168000</v>
+        <v>188168000</v>
       </c>
       <c r="B157" s="2">
-        <v>-8.5233789999999998E-4</v>
+        <v>-5.4640684000000004E-4</v>
       </c>
       <c r="C157" s="2">
-        <v>-5.7708159999999998E-3</v>
-      </c>
-      <c r="D157" s="3">
-        <v>-2.6725873000000001E-5</v>
+        <v>-5.9663694999999997E-3</v>
+      </c>
+      <c r="D157" s="2">
+        <v>2.0654796E-4</v>
       </c>
       <c r="E157" s="2">
-        <v>-0.24736295999999999</v>
+        <v>-0.26277562999999998</v>
       </c>
       <c r="F157" s="2">
-        <v>0.20054124000000001</v>
+        <v>0.22528113</v>
       </c>
       <c r="G157" s="2">
-        <v>-1.9152293000000001E-2</v>
+        <v>-2.8707854000000001E-2</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>159168000</v>
+        <v>189168000</v>
       </c>
       <c r="B158" s="2">
-        <v>-7.9568830000000001E-4</v>
+        <v>-5.5602647000000001E-4</v>
       </c>
       <c r="C158" s="2">
-        <v>-5.817025E-3</v>
-      </c>
-      <c r="D158" s="3">
-        <v>-1.6734808E-6</v>
+        <v>-5.9719513999999998E-3</v>
+      </c>
+      <c r="D158" s="2">
+        <v>2.0407427E-4</v>
       </c>
       <c r="E158" s="2">
-        <v>-0.24833121999999999</v>
+        <v>-0.26271600000000001</v>
       </c>
       <c r="F158" s="2">
-        <v>0.20199727000000001</v>
+        <v>0.22521532999999999</v>
       </c>
       <c r="G158" s="2">
-        <v>-2.0232534E-2</v>
+        <v>-2.9423207E-2</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>160168000</v>
+        <v>190168000</v>
       </c>
       <c r="B159" s="2">
-        <v>-7.3352270000000004E-4</v>
+        <v>-5.5854030000000005E-4</v>
       </c>
       <c r="C159" s="2">
-        <v>-5.8473585999999998E-3</v>
-      </c>
-      <c r="D159" s="3">
-        <v>2.659022E-5</v>
+        <v>-5.9728515000000001E-3</v>
+      </c>
+      <c r="D159" s="2">
+        <v>2.0259864999999999E-4</v>
       </c>
       <c r="E159" s="2">
-        <v>-0.24915466999999999</v>
+        <v>-0.26265767000000001</v>
       </c>
       <c r="F159" s="2">
-        <v>0.20284559999999999</v>
+        <v>0.22498275000000001</v>
       </c>
       <c r="G159" s="2">
-        <v>-2.2157824E-2</v>
+        <v>-3.0376460000000001E-2</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>161168000</v>
+        <v>191168000</v>
       </c>
       <c r="B160" s="2">
-        <v>-6.7180919999999995E-4</v>
+        <v>-5.6395475999999997E-4</v>
       </c>
       <c r="C160" s="2">
-        <v>-5.8853539999999998E-3</v>
-      </c>
-      <c r="D160" s="3">
-        <v>5.3286864999999997E-5</v>
+        <v>-5.9659250000000004E-3</v>
+      </c>
+      <c r="D160" s="2">
+        <v>1.9641780999999999E-4</v>
       </c>
       <c r="E160" s="2">
-        <v>-0.25062925000000003</v>
+        <v>-0.26251590000000002</v>
       </c>
       <c r="F160" s="2">
-        <v>0.20399342000000001</v>
+        <v>0.22490472</v>
       </c>
       <c r="G160" s="2">
-        <v>-2.3560859999999999E-2</v>
+        <v>-3.0751947000000002E-2</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>162168000</v>
+        <v>192168000</v>
       </c>
       <c r="B161" s="2">
-        <v>-6.4517779999999998E-4</v>
+        <v>-5.6505290000000001E-4</v>
       </c>
       <c r="C161" s="2">
-        <v>-5.9230094999999996E-3</v>
-      </c>
-      <c r="D161" s="3">
-        <v>7.6369324000000007E-5</v>
+        <v>-5.9540356000000001E-3</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1.9573603999999999E-4</v>
       </c>
       <c r="E161" s="2">
-        <v>-0.2516738</v>
+        <v>-0.26240876000000002</v>
       </c>
       <c r="F161" s="2">
-        <v>0.20535835999999999</v>
+        <v>0.22493288</v>
       </c>
       <c r="G161" s="2">
-        <v>-2.6971748E-2</v>
+        <v>-3.0591094999999999E-2</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>163168000</v>
+        <v>193168000</v>
       </c>
       <c r="B162" s="2">
-        <v>-6.2293009999999998E-4</v>
+        <v>-5.6102929999999999E-4</v>
       </c>
       <c r="C162" s="2">
-        <v>-5.9581334000000001E-3</v>
-      </c>
-      <c r="D162" s="3">
-        <v>8.6223610000000006E-5</v>
+        <v>-5.9439004000000004E-3</v>
+      </c>
+      <c r="D162" s="2">
+        <v>2.0146566E-4</v>
       </c>
       <c r="E162" s="2">
-        <v>-0.25239545000000002</v>
+        <v>-0.26237505999999999</v>
       </c>
       <c r="F162" s="2">
-        <v>0.20705104999999999</v>
+        <v>0.22482901999999999</v>
       </c>
       <c r="G162" s="2">
-        <v>-3.0706963E-2</v>
+        <v>-3.0373608999999999E-2</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>164168000</v>
+        <v>194168000</v>
       </c>
       <c r="B163" s="2">
-        <v>-6.0784635999999996E-4</v>
+        <v>-5.5157069999999995E-4</v>
       </c>
       <c r="C163" s="2">
-        <v>-6.0090613999999997E-3</v>
-      </c>
-      <c r="D163" s="3">
-        <v>8.4714200000000003E-5</v>
+        <v>-5.9293590000000004E-3</v>
+      </c>
+      <c r="D163" s="2">
+        <v>2.0131523000000001E-4</v>
       </c>
       <c r="E163" s="2">
-        <v>-0.25359783000000002</v>
+        <v>-0.26235323999999999</v>
       </c>
       <c r="F163" s="2">
-        <v>0.20885893999999999</v>
+        <v>0.22443927999999999</v>
       </c>
       <c r="G163" s="2">
-        <v>-3.3504784000000003E-2</v>
+        <v>-2.9608062000000001E-2</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>165168000</v>
+        <v>195168000</v>
       </c>
       <c r="B164" s="2">
-        <v>-5.8496895000000005E-4</v>
+        <v>-5.4005559999999999E-4</v>
       </c>
       <c r="C164" s="2">
-        <v>-6.0450397000000001E-3</v>
-      </c>
-      <c r="D164" s="3">
-        <v>7.7318870000000001E-5</v>
+        <v>-5.9121293E-3</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1.9873478E-4</v>
       </c>
       <c r="E164" s="2">
-        <v>-0.25492387999999999</v>
+        <v>-0.26233664000000001</v>
       </c>
       <c r="F164" s="2">
-        <v>0.20964321</v>
+        <v>0.22372023999999999</v>
       </c>
       <c r="G164" s="2">
-        <v>-3.4875546E-2</v>
+        <v>-2.8428376000000002E-2</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>166168000</v>
+        <v>196168000</v>
       </c>
       <c r="B165" s="2">
-        <v>-5.6611070000000001E-4</v>
+        <v>-5.3578103000000003E-4</v>
       </c>
       <c r="C165" s="2">
-        <v>-6.0452613999999998E-3</v>
-      </c>
-      <c r="D165" s="3">
-        <v>7.0461970000000002E-5</v>
+        <v>-5.9069680000000003E-3</v>
+      </c>
+      <c r="D165" s="2">
+        <v>2.1117107999999999E-4</v>
       </c>
       <c r="E165" s="2">
-        <v>-0.25540990000000002</v>
+        <v>-0.26237761999999998</v>
       </c>
       <c r="F165" s="2">
-        <v>0.20946094000000001</v>
+        <v>0.22313754</v>
       </c>
       <c r="G165" s="2">
-        <v>-3.5891871999999998E-2</v>
+        <v>-2.7107997000000002E-2</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>167168000</v>
+        <v>197168000</v>
       </c>
       <c r="B166" s="2">
-        <v>-5.5844070000000002E-4</v>
+        <v>-5.3336370000000004E-4</v>
       </c>
       <c r="C166" s="2">
-        <v>-6.0372395000000004E-3</v>
-      </c>
-      <c r="D166" s="3">
-        <v>7.5989534000000001E-5</v>
+        <v>-5.8959140000000004E-3</v>
+      </c>
+      <c r="D166" s="2">
+        <v>2.0374054000000001E-4</v>
       </c>
       <c r="E166" s="2">
-        <v>-0.25586579999999998</v>
+        <v>-0.26231325</v>
       </c>
       <c r="F166" s="2">
-        <v>0.20931781999999999</v>
+        <v>0.22277041</v>
       </c>
       <c r="G166" s="2">
-        <v>-3.6094914999999998E-2</v>
+        <v>-2.7275813999999999E-2</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>168168000</v>
+        <v>198168000</v>
       </c>
       <c r="B167" s="2">
-        <v>-5.5850460000000002E-4</v>
+        <v>-5.2221794999999995E-4</v>
       </c>
       <c r="C167" s="2">
-        <v>-6.014386E-3</v>
-      </c>
-      <c r="D167" s="3">
-        <v>9.3488656000000005E-5</v>
+        <v>-5.8961622E-3</v>
+      </c>
+      <c r="D167" s="2">
+        <v>2.0620986000000001E-4</v>
       </c>
       <c r="E167" s="2">
-        <v>-0.25583526000000001</v>
+        <v>-0.26236963000000002</v>
       </c>
       <c r="F167" s="2">
-        <v>0.2098421</v>
+        <v>0.22227532999999999</v>
       </c>
       <c r="G167" s="2">
-        <v>-3.6670956999999997E-2</v>
+        <v>-2.7711369999999999E-2</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>169168000</v>
+        <v>199168000</v>
       </c>
       <c r="B168" s="2">
-        <v>-5.6673149999999996E-4</v>
+        <v>-5.0765990000000002E-4</v>
       </c>
       <c r="C168" s="2">
-        <v>-5.9946673000000001E-3</v>
+        <v>-5.8939880000000002E-3</v>
       </c>
       <c r="D168" s="2">
-        <v>1.1651231000000001E-4</v>
+        <v>1.9672618E-4</v>
       </c>
       <c r="E168" s="2">
-        <v>-0.25594090000000003</v>
+        <v>-0.26243567000000001</v>
       </c>
       <c r="F168" s="2">
-        <v>0.21106637</v>
+        <v>0.2217604</v>
       </c>
       <c r="G168" s="2">
-        <v>-3.6997158000000002E-2</v>
+        <v>-2.7778753999999999E-2</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>170168000</v>
+        <v>200168000</v>
       </c>
       <c r="B169" s="2">
-        <v>-5.8640649999999999E-4</v>
+        <v>-4.8522563999999998E-4</v>
       </c>
       <c r="C169" s="2">
-        <v>-5.9707400000000004E-3</v>
+        <v>-5.9035820000000001E-3</v>
       </c>
       <c r="D169" s="2">
-        <v>1.2781199E-4</v>
+        <v>1.8636870000000001E-4</v>
       </c>
       <c r="E169" s="2">
-        <v>-0.25650840000000003</v>
+        <v>-0.2626058</v>
       </c>
       <c r="F169" s="2">
-        <v>0.2132493</v>
+        <v>0.22126836999999999</v>
       </c>
       <c r="G169" s="2">
-        <v>-3.6993943000000001E-2</v>
+        <v>-2.8790350999999999E-2</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>171168000</v>
+        <v>201168000</v>
       </c>
       <c r="B170" s="2">
-        <v>-5.9626480000000005E-4</v>
+        <v>-4.6437186999999998E-4</v>
       </c>
       <c r="C170" s="2">
-        <v>-5.9512920000000004E-3</v>
+        <v>-5.9134866999999997E-3</v>
       </c>
       <c r="D170" s="2">
-        <v>1.4215709000000001E-4</v>
+        <v>1.7491235000000001E-4</v>
       </c>
       <c r="E170" s="2">
-        <v>-0.25708039999999999</v>
+        <v>-0.26276818000000002</v>
       </c>
       <c r="F170" s="2">
-        <v>0.21525728999999999</v>
+        <v>0.22089318999999999</v>
       </c>
       <c r="G170" s="2">
-        <v>-3.7592599999999997E-2</v>
+        <v>-2.8993225000000001E-2</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>172168000</v>
+        <v>202168000</v>
       </c>
       <c r="B171" s="2">
-        <v>-6.0465925999999995E-4</v>
+        <v>-4.4972106000000002E-4</v>
       </c>
       <c r="C171" s="2">
-        <v>-5.9411109999999998E-3</v>
+        <v>-5.9291086999999996E-3</v>
       </c>
       <c r="D171" s="2">
-        <v>1.515008E-4</v>
+        <v>1.7409491000000001E-4</v>
       </c>
       <c r="E171" s="2">
-        <v>-0.25761773999999998</v>
+        <v>-0.26290767999999998</v>
       </c>
       <c r="F171" s="2">
-        <v>0.21683757000000001</v>
+        <v>0.22071490999999999</v>
       </c>
       <c r="G171" s="2">
-        <v>-3.7652049999999999E-2</v>
+        <v>-2.9648164000000001E-2</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>173168000</v>
+        <v>203168000</v>
       </c>
       <c r="B172" s="2">
-        <v>-6.0784887000000002E-4</v>
+        <v>-4.3662707000000002E-4</v>
       </c>
       <c r="C172" s="2">
-        <v>-5.9304014000000002E-3</v>
+        <v>-5.9380279999999997E-3</v>
       </c>
       <c r="D172" s="2">
-        <v>1.636672E-4</v>
+        <v>1.6628330999999999E-4</v>
       </c>
       <c r="E172" s="2">
-        <v>-0.25828830000000003</v>
+        <v>-0.26303270000000001</v>
       </c>
       <c r="F172" s="2">
-        <v>0.21840666</v>
+        <v>0.22047058</v>
       </c>
       <c r="G172" s="2">
-        <v>-3.9560985E-2</v>
+        <v>-3.1380992000000003E-2</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>174168000</v>
+        <v>204168000</v>
       </c>
       <c r="B173" s="2">
-        <v>-6.0663564000000005E-4</v>
+        <v>-4.2081907E-4</v>
       </c>
       <c r="C173" s="2">
-        <v>-5.9210850000000004E-3</v>
+        <v>-5.9403423E-3</v>
       </c>
       <c r="D173" s="2">
-        <v>1.7521042999999999E-4</v>
+        <v>1.5775477000000001E-4</v>
       </c>
       <c r="E173" s="2">
-        <v>-0.25891024000000001</v>
+        <v>-0.26313576</v>
       </c>
       <c r="F173" s="2">
-        <v>0.21959960000000001</v>
+        <v>0.22020069</v>
       </c>
       <c r="G173" s="2">
-        <v>-3.9505894999999999E-2</v>
+        <v>-3.236319E-2</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>175168000</v>
+        <v>205168000</v>
       </c>
       <c r="B174" s="2">
-        <v>-6.0309790000000001E-4</v>
+        <v>-4.0758549999999998E-4</v>
       </c>
       <c r="C174" s="2">
-        <v>-5.9024009999999998E-3</v>
+        <v>-5.9433309999999996E-3</v>
       </c>
       <c r="D174" s="2">
-        <v>1.7359058000000001E-4</v>
+        <v>1.5182798000000001E-4</v>
       </c>
       <c r="E174" s="2">
-        <v>-0.2597062</v>
+        <v>-0.26322215999999998</v>
       </c>
       <c r="F174" s="2">
-        <v>0.22042607</v>
+        <v>0.21983907999999999</v>
       </c>
       <c r="G174" s="2">
-        <v>-4.0510945E-2</v>
+        <v>-3.2451293999999999E-2</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>176168000</v>
+        <v>206168000</v>
       </c>
       <c r="B175" s="2">
-        <v>-5.9715440000000005E-4</v>
+        <v>-3.9593743999999999E-4</v>
       </c>
       <c r="C175" s="2">
-        <v>-5.8936989999999996E-3</v>
+        <v>-5.9419470000000004E-3</v>
       </c>
       <c r="D175" s="2">
-        <v>1.7852205000000001E-4</v>
+        <v>1.5012723000000001E-4</v>
       </c>
       <c r="E175" s="2">
-        <v>-0.26018112999999998</v>
+        <v>-0.26325625000000002</v>
       </c>
       <c r="F175" s="2">
-        <v>0.22111808999999999</v>
+        <v>0.21979190000000001</v>
       </c>
       <c r="G175" s="2">
-        <v>-4.0983065999999999E-2</v>
+        <v>-3.2389738000000001E-2</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>177168000</v>
+        <v>207168000</v>
       </c>
       <c r="B176" s="2">
-        <v>-5.9090439999999998E-4</v>
+        <v>-3.8077883000000001E-4</v>
       </c>
       <c r="C176" s="2">
-        <v>-5.8868634999999997E-3</v>
+        <v>-5.9352650000000003E-3</v>
       </c>
       <c r="D176" s="2">
-        <v>1.8849007E-4</v>
+        <v>1.5464156E-4</v>
       </c>
       <c r="E176" s="2">
-        <v>-0.26092981999999998</v>
+        <v>-0.26326300000000002</v>
       </c>
       <c r="F176" s="2">
-        <v>0.22166061000000001</v>
+        <v>0.21980852000000001</v>
       </c>
       <c r="G176" s="2">
-        <v>-4.0194870000000001E-2</v>
+        <v>-3.1798474E-2</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>178168000</v>
+        <v>208168000</v>
       </c>
       <c r="B177" s="2">
-        <v>-5.8485945999999997E-4</v>
+        <v>-3.7956612999999999E-4</v>
       </c>
       <c r="C177" s="2">
-        <v>-5.8799046000000002E-3</v>
+        <v>-5.9255080000000003E-3</v>
       </c>
       <c r="D177" s="2">
-        <v>1.9203030000000001E-4</v>
+        <v>1.6238411E-4</v>
       </c>
       <c r="E177" s="2">
-        <v>-0.26136379999999998</v>
+        <v>-0.26326189999999999</v>
       </c>
       <c r="F177" s="2">
-        <v>0.22193589999999999</v>
+        <v>0.21980401999999999</v>
       </c>
       <c r="G177" s="2">
-        <v>-3.8505490000000003E-2</v>
+        <v>-3.1789329999999998E-2</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>179168000</v>
+        <v>209168000</v>
       </c>
       <c r="B178" s="2">
-        <v>-5.7551526999999997E-4</v>
+        <v>-3.8341196999999998E-4</v>
       </c>
       <c r="C178" s="2">
-        <v>-5.8851279999999999E-3</v>
+        <v>-5.9222705E-3</v>
       </c>
       <c r="D178" s="2">
-        <v>2.0488314999999999E-4</v>
+        <v>1.8335119999999999E-4</v>
       </c>
       <c r="E178" s="2">
-        <v>-0.26178849999999998</v>
+        <v>-0.26329604000000001</v>
       </c>
       <c r="F178" s="2">
-        <v>0.22269621000000001</v>
+        <v>0.21957122000000001</v>
       </c>
       <c r="G178" s="2">
-        <v>-3.6538920000000003E-2</v>
+        <v>-3.1432893000000003E-2</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>180168000</v>
+        <v>210168000</v>
       </c>
       <c r="B179" s="2">
-        <v>-5.6329630000000002E-4</v>
+        <v>-3.9109360000000001E-4</v>
       </c>
       <c r="C179" s="2">
-        <v>-5.8925419999999997E-3</v>
+        <v>-5.9171826999999998E-3</v>
       </c>
       <c r="D179" s="2">
-        <v>2.0678864E-4</v>
+        <v>1.9303583999999999E-4</v>
       </c>
       <c r="E179" s="2">
-        <v>-0.26193001999999999</v>
+        <v>-0.26328390000000002</v>
       </c>
       <c r="F179" s="2">
-        <v>0.22317880000000001</v>
+        <v>0.21886705000000001</v>
       </c>
       <c r="G179" s="2">
-        <v>-3.4821756000000002E-2</v>
+        <v>-3.0428081999999999E-2</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
-        <v>181168000</v>
-      </c>
-      <c r="B180" s="2">
-        <v>-5.4904474999999998E-4</v>
-      </c>
-      <c r="C180" s="2">
-        <v>-5.9102369999999996E-3</v>
-      </c>
-      <c r="D180" s="2">
-        <v>2.0987366000000001E-4</v>
-      </c>
-      <c r="E180" s="2">
-        <v>-0.26222220000000002</v>
-      </c>
-      <c r="F180" s="2">
-        <v>0.22374584</v>
-      </c>
-      <c r="G180" s="2">
-        <v>-3.3181797999999998E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>182168000</v>
-      </c>
-      <c r="B181" s="2">
-        <v>-5.4668350000000002E-4</v>
-      </c>
-      <c r="C181" s="2">
-        <v>-5.9182495000000002E-3</v>
-      </c>
-      <c r="D181" s="2">
-        <v>2.10106E-4</v>
-      </c>
-      <c r="E181" s="2">
-        <v>-0.26225173000000002</v>
-      </c>
-      <c r="F181" s="2">
-        <v>0.22430760999999999</v>
-      </c>
-      <c r="G181" s="2">
-        <v>-3.1483012999999997E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
-        <v>183168000</v>
-      </c>
-      <c r="B182" s="2">
-        <v>-5.403421E-4</v>
-      </c>
-      <c r="C182" s="2">
-        <v>-5.9293840000000002E-3</v>
-      </c>
-      <c r="D182" s="2">
-        <v>2.1151319999999999E-4</v>
-      </c>
-      <c r="E182" s="2">
-        <v>-0.26241110000000001</v>
-      </c>
-      <c r="F182" s="2">
-        <v>0.22466163</v>
-      </c>
-      <c r="G182" s="2">
-        <v>-3.004689E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
-        <v>184168000</v>
-      </c>
-      <c r="B183" s="2">
-        <v>-5.3114763999999998E-4</v>
-      </c>
-      <c r="C183" s="2">
-        <v>-5.9360918000000004E-3</v>
-      </c>
-      <c r="D183" s="2">
-        <v>2.1288103000000001E-4</v>
-      </c>
-      <c r="E183" s="2">
-        <v>-0.26254746000000001</v>
-      </c>
-      <c r="F183" s="2">
-        <v>0.22476913000000001</v>
-      </c>
-      <c r="G183" s="2">
-        <v>-2.7872032000000001E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>185168000</v>
-      </c>
-      <c r="B184" s="2">
-        <v>-5.3492299999999997E-4</v>
-      </c>
-      <c r="C184" s="2">
-        <v>-5.9420923E-3</v>
-      </c>
-      <c r="D184" s="2">
-        <v>2.0892841999999999E-4</v>
-      </c>
-      <c r="E184" s="2">
-        <v>-0.26255060000000002</v>
-      </c>
-      <c r="F184" s="2">
-        <v>0.22498232000000001</v>
-      </c>
-      <c r="G184" s="2">
-        <v>-2.7502174000000001E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>186168000</v>
-      </c>
-      <c r="B185" s="2">
-        <v>-5.3666529999999997E-4</v>
-      </c>
-      <c r="C185" s="2">
-        <v>-5.9473649999999996E-3</v>
-      </c>
-      <c r="D185" s="2">
-        <v>2.0728106E-4</v>
-      </c>
-      <c r="E185" s="2">
-        <v>-0.26261726000000002</v>
-      </c>
-      <c r="F185" s="2">
-        <v>0.22505833</v>
-      </c>
-      <c r="G185" s="2">
-        <v>-2.7583923E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
-        <v>187168000</v>
-      </c>
-      <c r="B186" s="2">
-        <v>-5.4165756000000001E-4</v>
-      </c>
-      <c r="C186" s="2">
-        <v>-5.9587466999999998E-3</v>
-      </c>
-      <c r="D186" s="2">
-        <v>2.0956147999999999E-4</v>
-      </c>
-      <c r="E186" s="2">
-        <v>-0.26274416</v>
-      </c>
-      <c r="F186" s="2">
-        <v>0.2252557</v>
-      </c>
-      <c r="G186" s="2">
-        <v>-2.8275854999999999E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
-        <v>188168000</v>
-      </c>
-      <c r="B187" s="2">
-        <v>-5.4640684000000004E-4</v>
-      </c>
-      <c r="C187" s="2">
-        <v>-5.9663694999999997E-3</v>
-      </c>
-      <c r="D187" s="2">
-        <v>2.0654796E-4</v>
-      </c>
-      <c r="E187" s="2">
-        <v>-0.26277562999999998</v>
-      </c>
-      <c r="F187" s="2">
-        <v>0.22528113</v>
-      </c>
-      <c r="G187" s="2">
-        <v>-2.8707854000000001E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
-        <v>189168000</v>
-      </c>
-      <c r="B188" s="2">
-        <v>-5.5602647000000001E-4</v>
-      </c>
-      <c r="C188" s="2">
-        <v>-5.9719513999999998E-3</v>
-      </c>
-      <c r="D188" s="2">
-        <v>2.0407427E-4</v>
-      </c>
-      <c r="E188" s="2">
-        <v>-0.26271600000000001</v>
-      </c>
-      <c r="F188" s="2">
-        <v>0.22521532999999999</v>
-      </c>
-      <c r="G188" s="2">
-        <v>-2.9423207E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
-        <v>190168000</v>
-      </c>
-      <c r="B189" s="2">
-        <v>-5.5854030000000005E-4</v>
-      </c>
-      <c r="C189" s="2">
-        <v>-5.9728515000000001E-3</v>
-      </c>
-      <c r="D189" s="2">
-        <v>2.0259864999999999E-4</v>
-      </c>
-      <c r="E189" s="2">
-        <v>-0.26265767000000001</v>
-      </c>
-      <c r="F189" s="2">
-        <v>0.22498275000000001</v>
-      </c>
-      <c r="G189" s="2">
-        <v>-3.0376460000000001E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>191168000</v>
-      </c>
-      <c r="B190" s="2">
-        <v>-5.6395475999999997E-4</v>
-      </c>
-      <c r="C190" s="2">
-        <v>-5.9659250000000004E-3</v>
-      </c>
-      <c r="D190" s="2">
-        <v>1.9641780999999999E-4</v>
-      </c>
-      <c r="E190" s="2">
-        <v>-0.26251590000000002</v>
-      </c>
-      <c r="F190" s="2">
-        <v>0.22490472</v>
-      </c>
-      <c r="G190" s="2">
-        <v>-3.0751947000000002E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>192168000</v>
-      </c>
-      <c r="B191" s="2">
-        <v>-5.6505290000000001E-4</v>
-      </c>
-      <c r="C191" s="2">
-        <v>-5.9540356000000001E-3</v>
-      </c>
-      <c r="D191" s="2">
-        <v>1.9573603999999999E-4</v>
-      </c>
-      <c r="E191" s="2">
-        <v>-0.26240876000000002</v>
-      </c>
-      <c r="F191" s="2">
-        <v>0.22493288</v>
-      </c>
-      <c r="G191" s="2">
-        <v>-3.0591094999999999E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>193168000</v>
-      </c>
-      <c r="B192" s="2">
-        <v>-5.6102929999999999E-4</v>
-      </c>
-      <c r="C192" s="2">
-        <v>-5.9439004000000004E-3</v>
-      </c>
-      <c r="D192" s="2">
-        <v>2.0146566E-4</v>
-      </c>
-      <c r="E192" s="2">
-        <v>-0.26237505999999999</v>
-      </c>
-      <c r="F192" s="2">
-        <v>0.22482901999999999</v>
-      </c>
-      <c r="G192" s="2">
-        <v>-3.0373608999999999E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>194168000</v>
-      </c>
-      <c r="B193" s="2">
-        <v>-5.5157069999999995E-4</v>
-      </c>
-      <c r="C193" s="2">
-        <v>-5.9293590000000004E-3</v>
-      </c>
-      <c r="D193" s="2">
-        <v>2.0131523000000001E-4</v>
-      </c>
-      <c r="E193" s="2">
-        <v>-0.26235323999999999</v>
-      </c>
-      <c r="F193" s="2">
-        <v>0.22443927999999999</v>
-      </c>
-      <c r="G193" s="2">
-        <v>-2.9608062000000001E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
-        <v>195168000</v>
-      </c>
-      <c r="B194" s="2">
-        <v>-5.4005559999999999E-4</v>
-      </c>
-      <c r="C194" s="2">
-        <v>-5.9121293E-3</v>
-      </c>
-      <c r="D194" s="2">
-        <v>1.9873478E-4</v>
-      </c>
-      <c r="E194" s="2">
-        <v>-0.26233664000000001</v>
-      </c>
-      <c r="F194" s="2">
-        <v>0.22372023999999999</v>
-      </c>
-      <c r="G194" s="2">
-        <v>-2.8428376000000002E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
-        <v>196168000</v>
-      </c>
-      <c r="B195" s="2">
-        <v>-5.3578103000000003E-4</v>
-      </c>
-      <c r="C195" s="2">
-        <v>-5.9069680000000003E-3</v>
-      </c>
-      <c r="D195" s="2">
-        <v>2.1117107999999999E-4</v>
-      </c>
-      <c r="E195" s="2">
-        <v>-0.26237761999999998</v>
-      </c>
-      <c r="F195" s="2">
-        <v>0.22313754</v>
-      </c>
-      <c r="G195" s="2">
-        <v>-2.7107997000000002E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
-        <v>197168000</v>
-      </c>
-      <c r="B196" s="2">
-        <v>-5.3336370000000004E-4</v>
-      </c>
-      <c r="C196" s="2">
-        <v>-5.8959140000000004E-3</v>
-      </c>
-      <c r="D196" s="2">
-        <v>2.0374054000000001E-4</v>
-      </c>
-      <c r="E196" s="2">
-        <v>-0.26231325</v>
-      </c>
-      <c r="F196" s="2">
-        <v>0.22277041</v>
-      </c>
-      <c r="G196" s="2">
-        <v>-2.7275813999999999E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
-        <v>198168000</v>
-      </c>
-      <c r="B197" s="2">
-        <v>-5.2221794999999995E-4</v>
-      </c>
-      <c r="C197" s="2">
-        <v>-5.8961622E-3</v>
-      </c>
-      <c r="D197" s="2">
-        <v>2.0620986000000001E-4</v>
-      </c>
-      <c r="E197" s="2">
-        <v>-0.26236963000000002</v>
-      </c>
-      <c r="F197" s="2">
-        <v>0.22227532999999999</v>
-      </c>
-      <c r="G197" s="2">
-        <v>-2.7711369999999999E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
-        <v>199168000</v>
-      </c>
-      <c r="B198" s="2">
-        <v>-5.0765990000000002E-4</v>
-      </c>
-      <c r="C198" s="2">
-        <v>-5.8939880000000002E-3</v>
-      </c>
-      <c r="D198" s="2">
-        <v>1.9672618E-4</v>
-      </c>
-      <c r="E198" s="2">
-        <v>-0.26243567000000001</v>
-      </c>
-      <c r="F198" s="2">
-        <v>0.2217604</v>
-      </c>
-      <c r="G198" s="2">
-        <v>-2.7778753999999999E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
-        <v>200168000</v>
-      </c>
-      <c r="B199" s="2">
-        <v>-4.8522563999999998E-4</v>
-      </c>
-      <c r="C199" s="2">
-        <v>-5.9035820000000001E-3</v>
-      </c>
-      <c r="D199" s="2">
-        <v>1.8636870000000001E-4</v>
-      </c>
-      <c r="E199" s="2">
-        <v>-0.2626058</v>
-      </c>
-      <c r="F199" s="2">
-        <v>0.22126836999999999</v>
-      </c>
-      <c r="G199" s="2">
-        <v>-2.8790350999999999E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
-        <v>201168000</v>
-      </c>
-      <c r="B200" s="2">
-        <v>-4.6437186999999998E-4</v>
-      </c>
-      <c r="C200" s="2">
-        <v>-5.9134866999999997E-3</v>
-      </c>
-      <c r="D200" s="2">
-        <v>1.7491235000000001E-4</v>
-      </c>
-      <c r="E200" s="2">
-        <v>-0.26276818000000002</v>
-      </c>
-      <c r="F200" s="2">
-        <v>0.22089318999999999</v>
-      </c>
-      <c r="G200" s="2">
-        <v>-2.8993225000000001E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
-        <v>202168000</v>
-      </c>
-      <c r="B201" s="2">
-        <v>-4.4972106000000002E-4</v>
-      </c>
-      <c r="C201" s="2">
-        <v>-5.9291086999999996E-3</v>
-      </c>
-      <c r="D201" s="2">
-        <v>1.7409491000000001E-4</v>
-      </c>
-      <c r="E201" s="2">
-        <v>-0.26290767999999998</v>
-      </c>
-      <c r="F201" s="2">
-        <v>0.22071490999999999</v>
-      </c>
-      <c r="G201" s="2">
-        <v>-2.9648164000000001E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>203168000</v>
-      </c>
-      <c r="B202" s="2">
-        <v>-4.3662707000000002E-4</v>
-      </c>
-      <c r="C202" s="2">
-        <v>-5.9380279999999997E-3</v>
-      </c>
-      <c r="D202" s="2">
-        <v>1.6628330999999999E-4</v>
-      </c>
-      <c r="E202" s="2">
-        <v>-0.26303270000000001</v>
-      </c>
-      <c r="F202" s="2">
-        <v>0.22047058</v>
-      </c>
-      <c r="G202" s="2">
-        <v>-3.1380992000000003E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <v>204168000</v>
-      </c>
-      <c r="B203" s="2">
-        <v>-4.2081907E-4</v>
-      </c>
-      <c r="C203" s="2">
-        <v>-5.9403423E-3</v>
-      </c>
-      <c r="D203" s="2">
-        <v>1.5775477000000001E-4</v>
-      </c>
-      <c r="E203" s="2">
-        <v>-0.26313576</v>
-      </c>
-      <c r="F203" s="2">
-        <v>0.22020069</v>
-      </c>
-      <c r="G203" s="2">
-        <v>-3.236319E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
-        <v>205168000</v>
-      </c>
-      <c r="B204" s="2">
-        <v>-4.0758549999999998E-4</v>
-      </c>
-      <c r="C204" s="2">
-        <v>-5.9433309999999996E-3</v>
-      </c>
-      <c r="D204" s="2">
-        <v>1.5182798000000001E-4</v>
-      </c>
-      <c r="E204" s="2">
-        <v>-0.26322215999999998</v>
-      </c>
-      <c r="F204" s="2">
-        <v>0.21983907999999999</v>
-      </c>
-      <c r="G204" s="2">
-        <v>-3.2451293999999999E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
-        <v>206168000</v>
-      </c>
-      <c r="B205" s="2">
-        <v>-3.9593743999999999E-4</v>
-      </c>
-      <c r="C205" s="2">
-        <v>-5.9419470000000004E-3</v>
-      </c>
-      <c r="D205" s="2">
-        <v>1.5012723000000001E-4</v>
-      </c>
-      <c r="E205" s="2">
-        <v>-0.26325625000000002</v>
-      </c>
-      <c r="F205" s="2">
-        <v>0.21979190000000001</v>
-      </c>
-      <c r="G205" s="2">
-        <v>-3.2389738000000001E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
-        <v>207168000</v>
-      </c>
-      <c r="B206" s="2">
-        <v>-3.8077883000000001E-4</v>
-      </c>
-      <c r="C206" s="2">
-        <v>-5.9352650000000003E-3</v>
-      </c>
-      <c r="D206" s="2">
-        <v>1.5464156E-4</v>
-      </c>
-      <c r="E206" s="2">
-        <v>-0.26326300000000002</v>
-      </c>
-      <c r="F206" s="2">
-        <v>0.21980852000000001</v>
-      </c>
-      <c r="G206" s="2">
-        <v>-3.1798474E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
-        <v>208168000</v>
-      </c>
-      <c r="B207" s="2">
-        <v>-3.7956612999999999E-4</v>
-      </c>
-      <c r="C207" s="2">
-        <v>-5.9255080000000003E-3</v>
-      </c>
-      <c r="D207" s="2">
-        <v>1.6238411E-4</v>
-      </c>
-      <c r="E207" s="2">
-        <v>-0.26326189999999999</v>
-      </c>
-      <c r="F207" s="2">
-        <v>0.21980401999999999</v>
-      </c>
-      <c r="G207" s="2">
-        <v>-3.1789329999999998E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
-        <v>209168000</v>
-      </c>
-      <c r="B208" s="2">
-        <v>-3.8341196999999998E-4</v>
-      </c>
-      <c r="C208" s="2">
-        <v>-5.9222705E-3</v>
-      </c>
-      <c r="D208" s="2">
-        <v>1.8335119999999999E-4</v>
-      </c>
-      <c r="E208" s="2">
-        <v>-0.26329604000000001</v>
-      </c>
-      <c r="F208" s="2">
-        <v>0.21957122000000001</v>
-      </c>
-      <c r="G208" s="2">
-        <v>-3.1432893000000003E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
-        <v>210168000</v>
-      </c>
-      <c r="B209" s="2">
-        <v>-3.9109360000000001E-4</v>
-      </c>
-      <c r="C209" s="2">
-        <v>-5.9171826999999998E-3</v>
-      </c>
-      <c r="D209" s="2">
-        <v>1.9303583999999999E-4</v>
-      </c>
-      <c r="E209" s="2">
-        <v>-0.26328390000000002</v>
-      </c>
-      <c r="F209" s="2">
-        <v>0.21886705000000001</v>
-      </c>
-      <c r="G209" s="2">
-        <v>-3.0428081999999999E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
